--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_EXTENSAO_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_EXTENSAO_P1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="780" activeTab="3"/>
+    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -1872,6 +1872,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1881,98 +1941,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1983,15 +2088,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2000,102 +2096,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2264,7 +2264,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2287,14 +2287,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2337,7 +2337,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2360,14 +2360,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2740,28 +2740,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
@@ -2770,17 +2770,17 @@
       <c r="C11" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112" t="s">
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
@@ -2789,93 +2789,86 @@
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="117" t="s">
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="118"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="119"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2886,6 +2879,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2943,17 +2943,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -2962,119 +2962,119 @@
       <c r="C7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="87" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="87" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="87" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="87" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="87" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="87" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="87" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="87" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3088,17 +3088,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="126"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
@@ -3125,8 +3125,8 @@
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
       <c r="G19" s="130"/>
       <c r="H19" s="130"/>
       <c r="I19" s="130"/>
@@ -3136,8 +3136,8 @@
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
       <c r="G20" s="130"/>
       <c r="H20" s="130"/>
       <c r="I20" s="130"/>
@@ -3155,11 +3155,11 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="43" t="s">
@@ -3189,17 +3189,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="48" t="s">
@@ -3211,59 +3211,59 @@
       <c r="D27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122" t="s">
+      <c r="F27" s="124"/>
+      <c r="G27" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="119"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="119"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E19:F19"/>
@@ -3274,16 +3274,16 @@
     <mergeCell ref="G20:J20"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D7:J7"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3320,10 +3320,10 @@
   <dimension ref="B1:AF67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3368,39 +3368,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="156" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="145" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="152" t="s">
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -3764,36 +3764,36 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="149" t="s">
+      <c r="N9" s="138" t="s">
         <v>78</v>
       </c>
       <c r="O9" s="57"/>
       <c r="P9" s="58"/>
-      <c r="Q9" s="149" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="134" t="s">
+      <c r="Q9" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="168"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="161" t="s">
+      <c r="S9" s="135"/>
+      <c r="T9" s="152"/>
+      <c r="U9" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="V9" s="158" t="s">
+      <c r="V9" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="143"/>
-      <c r="X9" s="159" t="s">
+      <c r="W9" s="132"/>
+      <c r="X9" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="164">
+      <c r="Y9" s="156">
         <v>11</v>
       </c>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="149"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
     </row>
     <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
@@ -3822,22 +3822,22 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="150"/>
+      <c r="N10" s="139"/>
       <c r="O10" s="57"/>
       <c r="P10" s="58"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="144"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="152"/>
+      <c r="U10" s="154"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="159"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
@@ -3866,22 +3866,22 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="151"/>
+      <c r="N11" s="140"/>
       <c r="O11" s="57"/>
       <c r="P11" s="58"/>
-      <c r="Q11" s="151"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="166"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="158"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="152"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="134"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="159"/>
+      <c r="AA11" s="150"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="140"/>
     </row>
     <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
@@ -4156,7 +4156,7 @@
         <v>118</v>
       </c>
       <c r="Y16" s="74">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z16" s="74">
         <v>2</v>
@@ -4678,36 +4678,36 @@
       <c r="K26" s="79"/>
       <c r="L26" s="79"/>
       <c r="M26" s="79"/>
-      <c r="N26" s="140" t="s">
+      <c r="N26" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="O26" s="168"/>
-      <c r="P26" s="168"/>
-      <c r="Q26" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="R26" s="134" t="s">
+      <c r="O26" s="135"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" s="147" t="s">
         <v>123</v>
       </c>
-      <c r="S26" s="143"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="161" t="s">
+      <c r="S26" s="132"/>
+      <c r="T26" s="147"/>
+      <c r="U26" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="V26" s="143" t="s">
+      <c r="V26" s="132" t="s">
         <v>105</v>
       </c>
       <c r="W26" s="59"/>
-      <c r="X26" s="146" t="s">
+      <c r="X26" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="Y26" s="137">
+      <c r="Y26" s="169">
         <v>15</v>
       </c>
-      <c r="Z26" s="137"/>
-      <c r="AA26" s="131"/>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
+      <c r="Z26" s="169"/>
+      <c r="AA26" s="166"/>
+      <c r="AB26" s="166"/>
+      <c r="AC26" s="166"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="61" t="s">
@@ -4736,22 +4736,22 @@
       </c>
       <c r="L27" s="79"/>
       <c r="M27" s="79"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="144"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="136"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="148"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="154"/>
+      <c r="V27" s="133"/>
       <c r="W27" s="59"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
-      <c r="AC27" s="132"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="170"/>
+      <c r="Z27" s="170"/>
+      <c r="AA27" s="167"/>
+      <c r="AB27" s="167"/>
+      <c r="AC27" s="167"/>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="67"/>
@@ -4768,22 +4768,22 @@
       <c r="K28" s="79"/>
       <c r="L28" s="79"/>
       <c r="M28" s="79"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="144"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="136"/>
+      <c r="Q28" s="133"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="133"/>
       <c r="W28" s="59"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="132"/>
-      <c r="AB28" s="132"/>
-      <c r="AC28" s="132"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="170"/>
+      <c r="Z28" s="170"/>
+      <c r="AA28" s="167"/>
+      <c r="AB28" s="167"/>
+      <c r="AC28" s="167"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="61" t="s">
@@ -4806,22 +4806,22 @@
       <c r="K29" s="79"/>
       <c r="L29" s="79"/>
       <c r="M29" s="79"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="169"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="144"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="144"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="133"/>
+      <c r="R29" s="148"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="154"/>
+      <c r="V29" s="133"/>
       <c r="W29" s="59"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="132"/>
-      <c r="AB29" s="132"/>
-      <c r="AC29" s="132"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="170"/>
+      <c r="Z29" s="170"/>
+      <c r="AA29" s="167"/>
+      <c r="AB29" s="167"/>
+      <c r="AC29" s="167"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="67"/>
@@ -4838,22 +4838,22 @@
       <c r="K30" s="79"/>
       <c r="L30" s="79"/>
       <c r="M30" s="79"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="169"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="162"/>
-      <c r="V30" s="144"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="133"/>
+      <c r="R30" s="148"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="154"/>
+      <c r="V30" s="133"/>
       <c r="W30" s="59"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="132"/>
-      <c r="AB30" s="132"/>
-      <c r="AC30" s="132"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="170"/>
+      <c r="Z30" s="170"/>
+      <c r="AA30" s="167"/>
+      <c r="AB30" s="167"/>
+      <c r="AC30" s="167"/>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="67"/>
@@ -4870,22 +4870,22 @@
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
       <c r="M31" s="79"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="169"/>
-      <c r="Q31" s="144"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="144"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="148"/>
+      <c r="S31" s="133"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="133"/>
       <c r="W31" s="59"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="132"/>
-      <c r="AB31" s="132"/>
-      <c r="AC31" s="132"/>
+      <c r="X31" s="164"/>
+      <c r="Y31" s="170"/>
+      <c r="Z31" s="170"/>
+      <c r="AA31" s="167"/>
+      <c r="AB31" s="167"/>
+      <c r="AC31" s="167"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="67"/>
@@ -4902,22 +4902,22 @@
       <c r="K32" s="79"/>
       <c r="L32" s="79"/>
       <c r="M32" s="79"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="169"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="144"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="144"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="136"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="148"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="154"/>
+      <c r="V32" s="133"/>
       <c r="W32" s="59"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="138"/>
-      <c r="Z32" s="138"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
-      <c r="AC32" s="132"/>
+      <c r="X32" s="164"/>
+      <c r="Y32" s="170"/>
+      <c r="Z32" s="170"/>
+      <c r="AA32" s="167"/>
+      <c r="AB32" s="167"/>
+      <c r="AC32" s="167"/>
     </row>
     <row r="33" spans="2:29">
       <c r="B33" s="61" t="s">
@@ -4946,22 +4946,22 @@
       </c>
       <c r="L33" s="79"/>
       <c r="M33" s="79"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="145"/>
-      <c r="T33" s="136"/>
-      <c r="U33" s="163"/>
-      <c r="V33" s="145"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="134"/>
       <c r="W33" s="59"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="139"/>
-      <c r="AA33" s="133"/>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="133"/>
+      <c r="X33" s="165"/>
+      <c r="Y33" s="171"/>
+      <c r="Z33" s="171"/>
+      <c r="AA33" s="168"/>
+      <c r="AB33" s="168"/>
+      <c r="AC33" s="168"/>
     </row>
     <row r="34" spans="2:29">
       <c r="B34" s="69" t="s">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="S34" s="84"/>
       <c r="T34" s="81"/>
-      <c r="U34" s="171" t="s">
+      <c r="U34" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V34" s="80" t="s">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="S35" s="84"/>
       <c r="T35" s="81"/>
-      <c r="U35" s="171" t="s">
+      <c r="U35" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V35" s="80" t="s">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="S36" s="84"/>
       <c r="T36" s="81"/>
-      <c r="U36" s="171" t="s">
+      <c r="U36" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V36" s="80" t="s">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="S37" s="84"/>
       <c r="T37" s="81"/>
-      <c r="U37" s="171" t="s">
+      <c r="U37" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V37" s="80" t="s">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="S38" s="84"/>
       <c r="T38" s="81"/>
-      <c r="U38" s="171" t="s">
+      <c r="U38" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V38" s="80" t="s">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="S41" s="84"/>
       <c r="T41" s="81"/>
-      <c r="U41" s="171" t="s">
+      <c r="U41" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V41" s="80" t="s">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="S42" s="84"/>
       <c r="T42" s="81"/>
-      <c r="U42" s="171" t="s">
+      <c r="U42" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V42" s="80" t="s">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="S43" s="84"/>
       <c r="T43" s="81"/>
-      <c r="U43" s="171" t="s">
+      <c r="U43" s="97" t="s">
         <v>122</v>
       </c>
       <c r="V43" s="80" t="s">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="S44" s="84"/>
       <c r="T44" s="81"/>
-      <c r="U44" s="171" t="s">
+      <c r="U44" s="97" t="s">
         <v>141</v>
       </c>
       <c r="V44" s="80" t="s">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="S45" s="84"/>
       <c r="T45" s="81"/>
-      <c r="U45" s="171" t="s">
+      <c r="U45" s="97" t="s">
         <v>141</v>
       </c>
       <c r="V45" s="80" t="s">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="S46" s="84"/>
       <c r="T46" s="81"/>
-      <c r="U46" s="171" t="s">
+      <c r="U46" s="97" t="s">
         <v>141</v>
       </c>
       <c r="V46" s="80" t="s">
@@ -5706,11 +5706,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="W9:W11"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="P26:P33"/>
-    <mergeCell ref="S26:S33"/>
-    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="N26:N33"/>
+    <mergeCell ref="R26:R33"/>
+    <mergeCell ref="Q26:Q33"/>
+    <mergeCell ref="V26:V33"/>
+    <mergeCell ref="X26:X33"/>
+    <mergeCell ref="T26:T33"/>
+    <mergeCell ref="U26:U33"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -5726,15 +5728,13 @@
     <mergeCell ref="AA9:AA11"/>
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="R26:R33"/>
-    <mergeCell ref="Q26:Q33"/>
-    <mergeCell ref="V26:V33"/>
-    <mergeCell ref="X26:X33"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="O26:O33"/>
+    <mergeCell ref="P26:P33"/>
+    <mergeCell ref="S26:S33"/>
+    <mergeCell ref="AC9:AC11"/>
     <mergeCell ref="AB26:AB33"/>
     <mergeCell ref="AC26:AC33"/>
-    <mergeCell ref="T26:T33"/>
-    <mergeCell ref="U26:U33"/>
     <mergeCell ref="Y26:Y33"/>
     <mergeCell ref="Z26:Z33"/>
     <mergeCell ref="AA26:AA33"/>
@@ -6005,16 +6005,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6063,39 +6062,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6110,10 +6095,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_EXTENSAO_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_EXTENSAO_P1.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="780" activeTab="3"/>
+    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
     <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
-    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
+    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho do Mapa P2" sheetId="17" r:id="rId5"/>
+    <sheet name="Mapeamento P2 - Fluxo 1" sheetId="19" r:id="rId6"/>
+    <sheet name="Mapeamento P2 - Fluxo 2" sheetId="18" r:id="rId7"/>
+    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -102,8 +105,84 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="163">
   <si>
     <t>Schema</t>
   </si>
@@ -1048,6 +1127,68 @@
       </rPr>
       <t xml:space="preserve"> Vanessa Felix</t>
     </r>
+  </si>
+  <si>
+    <t>COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
+AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_DESC AND V_DT_FIM_SELECAO_DESC
+AND IND_SUBSTITUICAO = 'N'
+AND DT_GERACAO_PAGAMENTO IS NOT NULL
+AND DT_SOLICITACAO_DESCONTO IS NOT NULL
+AND DT_GERACAO_DESCONTO IS NULL
+AND VAL_A_PAGAR &gt; 0
+AND QTD_VAGAS_PREENCHIDAS &gt; 0
+THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
+  <si>
+    <t>COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
+AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_PAG AND V_DT_FIM_SELECAO_PAG
+AND DT_GERACAO_PAGAMENTO IS NULL
+AND IND_SUBSTITUICAO = 'N'
+AND VAL_A_PAGAR &gt; 0
+AND QTD_VAGAS_PREENCHIDAS &gt; 0</t>
+  </si>
+  <si>
+    <t>V_DT_INI_SELECAO_PAG</t>
+  </si>
+  <si>
+    <t>V_DT_FIM_SELECAO_PAG</t>
+  </si>
+  <si>
+    <t>V_DT_INI_SELECAO_DESC</t>
+  </si>
+  <si>
+    <t>V_DT_FIM_SELECAO_DESC</t>
+  </si>
+  <si>
+    <t>TRUNC(ADD_MONTHS(TRUNC(P_DT_COMPETENCIA), -2), 'MM');</t>
+  </si>
+  <si>
+    <t>TRUNC(ADD_MONTHS(TRUNC(P_DT_COMPETENCIA), -1), 'MM');</t>
+  </si>
+  <si>
+    <t>TRUNC(ADD_MONTHS(TRUNC(P_DT_COMPETENCIA), -3), 'MM');</t>
+  </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>IF IND_TIPO_CONTRATO IN ('F', 'S') THEN
+            V_DESTINO         := 1;
+ELSIF IND_TIPO_CONTRATO = 'P' THEN
+            V_DESTINO          := 2;
+END IF;</t>
+  </si>
+  <si>
+    <t>COD_TIPO_RUBRICA</t>
+  </si>
+  <si>
+    <t>IF R_AP.IND_PAGAMENTO = 'P' THEN
+-- PAGAMANETO
+ V_COD_TIPO_RUBRICA := 31; -- GRATIFICAÇÃO DE EXTENSÃO
+ELSIF R_AP.IND_PAGAMENTO = 'D' THEN
+-- DESCONTO
+V_COD_TIPO_RUBRICA := 48; -- DESCONTO DE PAGAMENTO INDEVIDO
+END IF;</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1866,15 +2007,33 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1884,15 +2043,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1932,14 +2082,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1950,18 +2106,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1974,8 +2118,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1986,6 +2145,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1996,90 +2221,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2096,6 +2237,96 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2264,7 +2495,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2287,14 +2518,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2337,7 +2568,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2360,14 +2591,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2740,28 +2971,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="112"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
@@ -2770,17 +3001,17 @@
       <c r="C11" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="114"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
@@ -2789,24 +3020,24 @@
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115" t="s">
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="101"/>
       <c r="H13" s="102"/>
       <c r="I13" s="102"/>
@@ -2815,9 +3046,9 @@
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="101"/>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
@@ -2826,9 +3057,9 @@
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="101"/>
       <c r="H15" s="102"/>
       <c r="I15" s="102"/>
@@ -2837,9 +3068,9 @@
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="101"/>
       <c r="H16" s="102"/>
       <c r="I16" s="102"/>
@@ -2848,27 +3079,34 @@
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="119"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2879,13 +3117,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2943,17 +3174,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -2962,119 +3193,119 @@
       <c r="C7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="87" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="87" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="87" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="87" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="87" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="87" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="87" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="87" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3088,17 +3319,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
@@ -3110,38 +3341,38 @@
       <c r="D18" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="127" t="s">
+      <c r="F18" s="130"/>
+      <c r="G18" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="2"/>
@@ -3155,11 +3386,11 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="43" t="s">
@@ -3189,17 +3420,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="48" t="s">
@@ -3211,69 +3442,52 @@
       <c r="D27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="124" t="s">
+      <c r="E27" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124" t="s">
+      <c r="F27" s="122"/>
+      <c r="G27" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="131"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="120"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="E18:F18"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3284,6 +3498,23 @@
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3317,13 +3548,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF67"/>
+  <dimension ref="B1:AF66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D26" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3368,39 +3599,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="145" t="s">
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="145"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="141" t="s">
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -3764,36 +3995,36 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="138" t="s">
+      <c r="N9" s="153" t="s">
         <v>78</v>
       </c>
       <c r="O9" s="57"/>
       <c r="P9" s="58"/>
-      <c r="Q9" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="147" t="s">
+      <c r="Q9" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="135"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="V9" s="150" t="s">
+      <c r="S9" s="163"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="156" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="132"/>
-      <c r="X9" s="151" t="s">
+      <c r="W9" s="138"/>
+      <c r="X9" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="156">
+      <c r="Y9" s="159">
         <v>11</v>
       </c>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
     </row>
     <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
@@ -3822,22 +4053,22 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="139"/>
+      <c r="N10" s="154"/>
       <c r="O10" s="57"/>
       <c r="P10" s="58"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="152"/>
-      <c r="U10" s="154"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="133"/>
-      <c r="X10" s="151"/>
-      <c r="Y10" s="157"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="139"/>
-      <c r="AC10" s="139"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
@@ -3866,22 +4097,22 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="140"/>
+      <c r="N11" s="155"/>
       <c r="O11" s="57"/>
       <c r="P11" s="58"/>
-      <c r="Q11" s="140"/>
-      <c r="R11" s="149"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="152"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="150"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="150"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="140"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="146"/>
+      <c r="V11" s="156"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="161"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="155"/>
+      <c r="AC11" s="155"/>
     </row>
     <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
@@ -4613,49 +4844,57 @@
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
     </row>
-    <row r="25" spans="2:29" ht="324">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="R25" s="78" t="s">
+    <row r="25" spans="2:29">
+      <c r="B25" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="132" t="s">
+        <v>126</v>
+      </c>
+      <c r="O25" s="163"/>
+      <c r="P25" s="163"/>
+      <c r="Q25" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="71"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="V25" s="71" t="s">
-        <v>104</v>
+      <c r="S25" s="138"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="V25" s="138" t="s">
+        <v>105</v>
       </c>
       <c r="W25" s="59"/>
-      <c r="X25" s="72" t="s">
+      <c r="X25" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="Y25" s="74">
-        <v>30</v>
-      </c>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
+      <c r="Y25" s="169">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="169"/>
+      <c r="AA25" s="166"/>
+      <c r="AB25" s="166"/>
+      <c r="AC25" s="166"/>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="61" t="s">
@@ -4665,88 +4904,68 @@
         <v>107</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G26" s="79"/>
       <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
+      <c r="I26" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="79">
+        <v>4</v>
+      </c>
       <c r="L26" s="79"/>
       <c r="M26" s="79"/>
-      <c r="N26" s="160" t="s">
-        <v>126</v>
-      </c>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="132" t="s">
-        <v>107</v>
-      </c>
-      <c r="R26" s="147" t="s">
-        <v>123</v>
-      </c>
-      <c r="S26" s="132"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="V26" s="132" t="s">
-        <v>105</v>
-      </c>
+      <c r="N26" s="133"/>
+      <c r="O26" s="164"/>
+      <c r="P26" s="164"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="139"/>
       <c r="W26" s="59"/>
-      <c r="X26" s="163" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y26" s="169">
-        <v>15</v>
-      </c>
-      <c r="Z26" s="169"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="170"/>
+      <c r="Z26" s="170"/>
+      <c r="AA26" s="167"/>
+      <c r="AB26" s="167"/>
+      <c r="AC26" s="167"/>
     </row>
     <row r="27" spans="2:29">
-      <c r="B27" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="80" t="s">
-        <v>79</v>
-      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="80"/>
       <c r="F27" s="80" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G27" s="79"/>
       <c r="H27" s="79"/>
-      <c r="I27" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="K27" s="79">
-        <v>4</v>
-      </c>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
       <c r="L27" s="79"/>
       <c r="M27" s="79"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="154"/>
-      <c r="V27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="164"/>
+      <c r="P27" s="164"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="136"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="136"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="139"/>
       <c r="W27" s="59"/>
-      <c r="X27" s="164"/>
+      <c r="X27" s="142"/>
       <c r="Y27" s="170"/>
       <c r="Z27" s="170"/>
       <c r="AA27" s="167"/>
@@ -4754,12 +4973,18 @@
       <c r="AC27" s="167"/>
     </row>
     <row r="28" spans="2:29">
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
+      <c r="B28" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="80" t="s">
+        <v>77</v>
+      </c>
       <c r="E28" s="80"/>
       <c r="F28" s="80" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="G28" s="79"/>
       <c r="H28" s="79"/>
@@ -4768,17 +4993,17 @@
       <c r="K28" s="79"/>
       <c r="L28" s="79"/>
       <c r="M28" s="79"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="133"/>
+      <c r="N28" s="133"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="136"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="136"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="139"/>
       <c r="W28" s="59"/>
-      <c r="X28" s="164"/>
+      <c r="X28" s="142"/>
       <c r="Y28" s="170"/>
       <c r="Z28" s="170"/>
       <c r="AA28" s="167"/>
@@ -4786,18 +5011,12 @@
       <c r="AC28" s="167"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="80" t="s">
-        <v>77</v>
-      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="80"/>
       <c r="F29" s="80" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="G29" s="79"/>
       <c r="H29" s="79"/>
@@ -4806,17 +5025,17 @@
       <c r="K29" s="79"/>
       <c r="L29" s="79"/>
       <c r="M29" s="79"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="154"/>
-      <c r="V29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="164"/>
+      <c r="Q29" s="139"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="136"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="139"/>
       <c r="W29" s="59"/>
-      <c r="X29" s="164"/>
+      <c r="X29" s="142"/>
       <c r="Y29" s="170"/>
       <c r="Z29" s="170"/>
       <c r="AA29" s="167"/>
@@ -4829,7 +5048,7 @@
       <c r="D30" s="68"/>
       <c r="E30" s="80"/>
       <c r="F30" s="80" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="G30" s="79"/>
       <c r="H30" s="79"/>
@@ -4838,17 +5057,17 @@
       <c r="K30" s="79"/>
       <c r="L30" s="79"/>
       <c r="M30" s="79"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="133"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="133"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="154"/>
-      <c r="V30" s="133"/>
+      <c r="N30" s="133"/>
+      <c r="O30" s="164"/>
+      <c r="P30" s="164"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="136"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="136"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="139"/>
       <c r="W30" s="59"/>
-      <c r="X30" s="164"/>
+      <c r="X30" s="142"/>
       <c r="Y30" s="170"/>
       <c r="Z30" s="170"/>
       <c r="AA30" s="167"/>
@@ -4861,7 +5080,7 @@
       <c r="D31" s="68"/>
       <c r="E31" s="80"/>
       <c r="F31" s="80" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="G31" s="79"/>
       <c r="H31" s="79"/>
@@ -4870,17 +5089,17 @@
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
       <c r="M31" s="79"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="154"/>
-      <c r="V31" s="133"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="164"/>
+      <c r="P31" s="164"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="136"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="139"/>
       <c r="W31" s="59"/>
-      <c r="X31" s="164"/>
+      <c r="X31" s="142"/>
       <c r="Y31" s="170"/>
       <c r="Z31" s="170"/>
       <c r="AA31" s="167"/>
@@ -4888,53 +5107,64 @@
       <c r="AC31" s="167"/>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
+      <c r="B32" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>131</v>
+      </c>
       <c r="E32" s="80"/>
       <c r="F32" s="80" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="G32" s="79"/>
       <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
+      <c r="I32" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="J32" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="79">
+        <v>6</v>
+      </c>
       <c r="L32" s="79"/>
       <c r="M32" s="79"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="133"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="154"/>
-      <c r="V32" s="133"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="140"/>
       <c r="W32" s="59"/>
-      <c r="X32" s="164"/>
-      <c r="Y32" s="170"/>
-      <c r="Z32" s="170"/>
-      <c r="AA32" s="167"/>
-      <c r="AB32" s="167"/>
-      <c r="AC32" s="167"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="171"/>
+      <c r="Z32" s="171"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
+      <c r="AC32" s="168"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="69" t="s">
         <v>107</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E33" s="80"/>
       <c r="F33" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+        <v>134</v>
+      </c>
+      <c r="H33" s="83"/>
       <c r="I33" s="79" t="s">
         <v>122</v>
       </c>
@@ -4942,26 +5172,40 @@
         <v>118</v>
       </c>
       <c r="K33" s="79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="137"/>
-      <c r="Q33" s="134"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="134"/>
-      <c r="T33" s="149"/>
-      <c r="U33" s="155"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="165"/>
-      <c r="Y33" s="171"/>
-      <c r="Z33" s="171"/>
-      <c r="AA33" s="168"/>
-      <c r="AB33" s="168"/>
-      <c r="AC33" s="168"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33" s="84"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V33" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="W33" s="81"/>
+      <c r="X33" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y33" s="79">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
     </row>
     <row r="34" spans="2:29">
       <c r="B34" s="69" t="s">
@@ -4971,24 +5215,20 @@
         <v>107</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="K34" s="79">
-        <v>2</v>
-      </c>
-      <c r="L34" s="79"/>
-      <c r="M34" s="83"/>
+        <v>133</v>
+      </c>
+      <c r="H34" s="81"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="81"/>
       <c r="N34" s="80" t="s">
         <v>109</v>
       </c>
@@ -5002,19 +5242,17 @@
       </c>
       <c r="S34" s="84"/>
       <c r="T34" s="81"/>
-      <c r="U34" s="97" t="s">
+      <c r="U34" s="96" t="s">
         <v>122</v>
       </c>
       <c r="V34" s="80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W34" s="81"/>
-      <c r="X34" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y34" s="79">
-        <v>2</v>
-      </c>
+      <c r="X34" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y34" s="59"/>
       <c r="Z34" s="81"/>
       <c r="AA34" s="81"/>
       <c r="AB34" s="81"/>
@@ -5028,14 +5266,16 @@
         <v>107</v>
       </c>
       <c r="D35" s="80" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E35" s="80"/>
       <c r="F35" s="80" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H35" s="81"/>
-      <c r="I35" s="59"/>
+      <c r="I35" s="59" t="s">
+        <v>122</v>
+      </c>
       <c r="J35" s="59" t="s">
         <v>120</v>
       </c>
@@ -5055,11 +5295,11 @@
       </c>
       <c r="S35" s="84"/>
       <c r="T35" s="81"/>
-      <c r="U35" s="97" t="s">
+      <c r="U35" s="96" t="s">
         <v>122</v>
       </c>
       <c r="V35" s="80" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="W35" s="81"/>
       <c r="X35" s="59" t="s">
@@ -5083,16 +5323,18 @@
       </c>
       <c r="E36" s="80"/>
       <c r="F36" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="J36" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="59"/>
+        <v>130</v>
+      </c>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="79">
+        <v>1</v>
+      </c>
       <c r="L36" s="59"/>
       <c r="M36" s="81"/>
       <c r="N36" s="80" t="s">
@@ -5108,17 +5350,19 @@
       </c>
       <c r="S36" s="84"/>
       <c r="T36" s="81"/>
-      <c r="U36" s="97" t="s">
+      <c r="U36" s="96" t="s">
         <v>122</v>
       </c>
       <c r="V36" s="80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="W36" s="81"/>
-      <c r="X36" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y36" s="59"/>
+      <c r="X36" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y36" s="79">
+        <v>1</v>
+      </c>
       <c r="Z36" s="81"/>
       <c r="AA36" s="81"/>
       <c r="AB36" s="81"/>
@@ -5132,23 +5376,23 @@
         <v>107</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E37" s="80"/>
       <c r="F37" s="80" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H37" s="79"/>
       <c r="I37" s="79" t="s">
         <v>122</v>
       </c>
       <c r="J37" s="79" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K37" s="79">
-        <v>1</v>
-      </c>
-      <c r="L37" s="59"/>
+        <v>5</v>
+      </c>
+      <c r="L37" s="82"/>
       <c r="M37" s="81"/>
       <c r="N37" s="80" t="s">
         <v>109</v>
@@ -5163,18 +5407,18 @@
       </c>
       <c r="S37" s="84"/>
       <c r="T37" s="81"/>
-      <c r="U37" s="97" t="s">
+      <c r="U37" s="96" t="s">
         <v>122</v>
       </c>
       <c r="V37" s="80" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="W37" s="81"/>
       <c r="X37" s="79" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="Y37" s="79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z37" s="81"/>
       <c r="AA37" s="81"/>
@@ -5189,12 +5433,13 @@
         <v>107</v>
       </c>
       <c r="D38" s="80" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E38" s="80"/>
       <c r="F38" s="80" t="s">
-        <v>135</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G38" s="79"/>
       <c r="H38" s="79"/>
       <c r="I38" s="79" t="s">
         <v>122</v>
@@ -5203,40 +5448,42 @@
         <v>118</v>
       </c>
       <c r="K38" s="79">
-        <v>5</v>
-      </c>
-      <c r="L38" s="82"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
       <c r="Q38" s="57" t="s">
         <v>107</v>
       </c>
       <c r="R38" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="S38" s="84"/>
-      <c r="T38" s="81"/>
-      <c r="U38" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="V38" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="W38" s="81"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="U38" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="V38" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="W38" s="59"/>
       <c r="X38" s="79" t="s">
         <v>118</v>
       </c>
       <c r="Y38" s="79">
-        <v>5</v>
-      </c>
-      <c r="Z38" s="81"/>
-      <c r="AA38" s="81"/>
-      <c r="AB38" s="81"/>
-      <c r="AC38" s="81"/>
+        <v>6</v>
+      </c>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
     </row>
     <row r="39" spans="2:29">
       <c r="B39" s="69" t="s">
@@ -5246,52 +5493,46 @@
         <v>107</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="K39" s="79">
-        <v>6</v>
-      </c>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="62" t="s">
+      <c r="K39" s="59">
+        <v>12</v>
+      </c>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="86" t="s">
         <v>109</v>
       </c>
       <c r="O39" s="57"/>
       <c r="P39" s="58"/>
-      <c r="Q39" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="R39" s="77" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="78"/>
       <c r="S39" s="57"/>
-      <c r="T39" s="73" t="s">
-        <v>119</v>
-      </c>
+      <c r="T39" s="75"/>
       <c r="U39" s="78" t="s">
-        <v>141</v>
-      </c>
-      <c r="V39" s="57" t="s">
-        <v>98</v>
+        <v>122</v>
+      </c>
+      <c r="V39" s="61" t="s">
+        <v>136</v>
       </c>
       <c r="W39" s="59"/>
-      <c r="X39" s="79" t="s">
+      <c r="X39" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="Y39" s="79">
-        <v>6</v>
+      <c r="Y39" s="59">
+        <v>12</v>
       </c>
       <c r="Z39" s="74"/>
       <c r="AA39" s="59"/>
@@ -5308,49 +5549,46 @@
       <c r="D40" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="59"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80" t="s">
+        <v>127</v>
+      </c>
       <c r="H40" s="59"/>
-      <c r="I40" s="59" t="s">
-        <v>122</v>
-      </c>
+      <c r="I40" s="59"/>
       <c r="J40" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="K40" s="59">
-        <v>12</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="K40" s="59"/>
       <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="86" t="s">
+      <c r="M40" s="81"/>
+      <c r="N40" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="O40" s="57"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="V40" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="W40" s="59"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R40" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S40" s="84"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V40" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="W40" s="81"/>
       <c r="X40" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y40" s="59">
-        <v>12</v>
-      </c>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
+        <v>120</v>
+      </c>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
     </row>
     <row r="41" spans="2:29">
       <c r="B41" s="69" t="s">
@@ -5364,7 +5602,7 @@
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
@@ -5387,11 +5625,11 @@
       </c>
       <c r="S41" s="84"/>
       <c r="T41" s="81"/>
-      <c r="U41" s="97" t="s">
+      <c r="U41" s="96" t="s">
         <v>122</v>
       </c>
       <c r="V41" s="80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="W41" s="81"/>
       <c r="X41" s="59" t="s">
@@ -5404,27 +5642,33 @@
       <c r="AC41" s="81"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="B42" s="69" t="s">
+      <c r="B42" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="81"/>
+      <c r="C42" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="J42" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="90">
+        <v>4</v>
+      </c>
+      <c r="L42" s="90"/>
+      <c r="M42" s="83"/>
       <c r="N42" s="80" t="s">
         <v>109</v>
       </c>
@@ -5438,52 +5682,39 @@
       </c>
       <c r="S42" s="84"/>
       <c r="T42" s="81"/>
-      <c r="U42" s="97" t="s">
+      <c r="U42" s="96" t="s">
         <v>122</v>
       </c>
       <c r="V42" s="80" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="W42" s="81"/>
-      <c r="X42" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y42" s="59"/>
+      <c r="X42" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y42" s="90">
+        <v>4</v>
+      </c>
       <c r="Z42" s="81"/>
       <c r="AA42" s="81"/>
       <c r="AB42" s="81"/>
       <c r="AC42" s="81"/>
     </row>
     <row r="43" spans="2:29">
-      <c r="B43" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="H43" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="J43" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="K43" s="90">
-        <v>4</v>
-      </c>
-      <c r="L43" s="90"/>
-      <c r="M43" s="83"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="91"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="94"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="80" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="O43" s="84"/>
       <c r="P43" s="84"/>
@@ -5495,18 +5726,18 @@
       </c>
       <c r="S43" s="84"/>
       <c r="T43" s="81"/>
-      <c r="U43" s="97" t="s">
-        <v>122</v>
+      <c r="U43" s="96" t="s">
+        <v>141</v>
       </c>
       <c r="V43" s="80" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="W43" s="81"/>
-      <c r="X43" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y43" s="90">
-        <v>4</v>
+      <c r="X43" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y43" s="74">
+        <v>2</v>
       </c>
       <c r="Z43" s="81"/>
       <c r="AA43" s="81"/>
@@ -5526,8 +5757,8 @@
       <c r="K44" s="94"/>
       <c r="L44" s="94"/>
       <c r="M44" s="91"/>
-      <c r="N44" s="95" t="s">
-        <v>142</v>
+      <c r="N44" s="80" t="s">
+        <v>143</v>
       </c>
       <c r="O44" s="84"/>
       <c r="P44" s="84"/>
@@ -5539,11 +5770,11 @@
       </c>
       <c r="S44" s="84"/>
       <c r="T44" s="81"/>
-      <c r="U44" s="97" t="s">
+      <c r="U44" s="96" t="s">
         <v>141</v>
       </c>
       <c r="V44" s="80" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="W44" s="81"/>
       <c r="X44" s="72" t="s">
@@ -5570,9 +5801,7 @@
       <c r="K45" s="94"/>
       <c r="L45" s="94"/>
       <c r="M45" s="91"/>
-      <c r="N45" s="95" t="s">
-        <v>143</v>
-      </c>
+      <c r="N45" s="95"/>
       <c r="O45" s="84"/>
       <c r="P45" s="84"/>
       <c r="Q45" s="57" t="s">
@@ -5583,63 +5812,24 @@
       </c>
       <c r="S45" s="84"/>
       <c r="T45" s="81"/>
-      <c r="U45" s="97" t="s">
+      <c r="U45" s="96" t="s">
         <v>141</v>
       </c>
       <c r="V45" s="80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W45" s="81"/>
       <c r="X45" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y45" s="74">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y45" s="74"/>
       <c r="Z45" s="81"/>
       <c r="AA45" s="81"/>
       <c r="AB45" s="81"/>
       <c r="AC45" s="81"/>
     </row>
     <row r="46" spans="2:29">
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="R46" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="S46" s="84"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="V46" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="W46" s="81"/>
-      <c r="X46" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
+      <c r="F46" s="56"/>
     </row>
     <row r="47" spans="2:29">
       <c r="F47" s="56"/>
@@ -5701,18 +5891,14 @@
     <row r="66" spans="6:6">
       <c r="F66" s="56"/>
     </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="56"/>
-    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="N26:N33"/>
-    <mergeCell ref="R26:R33"/>
-    <mergeCell ref="Q26:Q33"/>
-    <mergeCell ref="V26:V33"/>
-    <mergeCell ref="X26:X33"/>
-    <mergeCell ref="T26:T33"/>
-    <mergeCell ref="U26:U33"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -5729,15 +5915,16 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="O26:O33"/>
-    <mergeCell ref="P26:P33"/>
-    <mergeCell ref="S26:S33"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB26:AB33"/>
-    <mergeCell ref="AC26:AC33"/>
-    <mergeCell ref="Y26:Y33"/>
-    <mergeCell ref="Z26:Z33"/>
-    <mergeCell ref="AA26:AA33"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -5747,6 +5934,4442 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AF63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="51" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="51" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18.42578125" style="51" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="23.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="38"/>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="B4" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="74">
+        <v>100</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="57"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="59"/>
+      <c r="X4" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="74">
+        <v>1</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5" s="64"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="59"/>
+      <c r="X5" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="74">
+        <v>1</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="97"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6" s="59"/>
+      <c r="X6" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y6" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="74">
+        <v>1</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="57"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="59"/>
+      <c r="X7" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y7" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="74">
+        <v>10</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="57"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="59"/>
+      <c r="X8" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y8" s="74">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="182">
+        <v>11</v>
+      </c>
+      <c r="L9" s="182"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="179"/>
+      <c r="T9" s="180"/>
+      <c r="U9" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="W9" s="178"/>
+      <c r="X9" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" s="182">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="178"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1">
+      <c r="B10" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="74">
+        <v>2</v>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="57"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="59"/>
+      <c r="X10" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1">
+      <c r="B11" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="74">
+        <v>8</v>
+      </c>
+      <c r="L11" s="74"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="57"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" s="59"/>
+      <c r="X11" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" s="74">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1">
+      <c r="B12" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="74">
+        <v>4</v>
+      </c>
+      <c r="L12" s="74"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="57"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V12" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" s="59"/>
+      <c r="X12" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" s="74">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="2:29" s="3" customFormat="1">
+      <c r="B13" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="74">
+        <v>6</v>
+      </c>
+      <c r="L13" s="74">
+        <v>2</v>
+      </c>
+      <c r="M13" s="79"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="57"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="59"/>
+      <c r="X13" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" s="74">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="74">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="2:29" s="3" customFormat="1">
+      <c r="B14" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="57"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V14" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="W14" s="59"/>
+      <c r="X14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="2:29" s="3" customFormat="1">
+      <c r="B15" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="74">
+        <v>5</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="57"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="W15" s="59"/>
+      <c r="X15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y15" s="74">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="2:29" s="3" customFormat="1">
+      <c r="B16" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="74">
+        <v>10</v>
+      </c>
+      <c r="L16" s="74"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16" s="57"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" s="59"/>
+      <c r="X16" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y16" s="74">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17" spans="2:29" s="3" customFormat="1">
+      <c r="B17" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="74">
+        <v>2</v>
+      </c>
+      <c r="L17" s="74"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17" s="57"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V17" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="59"/>
+      <c r="X17" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y17" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+    </row>
+    <row r="18" spans="2:29" s="3" customFormat="1">
+      <c r="B18" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="74">
+        <v>15</v>
+      </c>
+      <c r="L18" s="74"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="57"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="W18" s="59"/>
+      <c r="X18" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y18" s="74">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+    </row>
+    <row r="19" spans="2:29" s="3" customFormat="1">
+      <c r="B19" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="74">
+        <v>2</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="57"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V19" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="59"/>
+      <c r="X19" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+    </row>
+    <row r="20" spans="2:29" s="3" customFormat="1">
+      <c r="B20" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="74">
+        <v>3</v>
+      </c>
+      <c r="L20" s="74"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="57"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V20" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" s="59"/>
+      <c r="X20" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y20" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+    </row>
+    <row r="21" spans="2:29" s="3" customFormat="1">
+      <c r="B21" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="74">
+        <v>12</v>
+      </c>
+      <c r="L21" s="74"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S21" s="57"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V21" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="59"/>
+      <c r="X21" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y21" s="74">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+    </row>
+    <row r="22" spans="2:29" s="3" customFormat="1">
+      <c r="B22" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="74">
+        <v>30</v>
+      </c>
+      <c r="L22" s="74"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S22" s="97"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V22" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="W22" s="59"/>
+      <c r="X22" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y22" s="74">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+    </row>
+    <row r="23" spans="2:29" s="3" customFormat="1">
+      <c r="B23" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="178" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="182">
+        <v>15</v>
+      </c>
+      <c r="L23" s="182"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="179"/>
+      <c r="P23" s="179"/>
+      <c r="Q23" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" s="178"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="V23" s="178" t="s">
+        <v>105</v>
+      </c>
+      <c r="W23" s="59"/>
+      <c r="X23" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y23" s="182">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="182"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+    </row>
+    <row r="24" spans="2:29" s="3" customFormat="1">
+      <c r="B24" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="79">
+        <v>6</v>
+      </c>
+      <c r="L24" s="74"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S24" s="57"/>
+      <c r="T24" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="U24" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="V24" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24" s="59"/>
+      <c r="X24" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y24" s="79">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+    </row>
+    <row r="25" spans="2:29" s="3" customFormat="1">
+      <c r="B25" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="59">
+        <v>12</v>
+      </c>
+      <c r="L25" s="74"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="57"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V25" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y25" s="59">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+    </row>
+    <row r="26" spans="2:29" s="3" customFormat="1">
+      <c r="B26" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="172"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="59"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="84"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V26" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="W26" s="81"/>
+      <c r="X26" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+    </row>
+    <row r="27" spans="2:29" s="3" customFormat="1">
+      <c r="B27" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="172"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" s="84"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V27" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="W27" s="81"/>
+      <c r="X27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+    </row>
+    <row r="28" spans="2:29" s="3" customFormat="1">
+      <c r="B28" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="172"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="90">
+        <v>4</v>
+      </c>
+      <c r="L28" s="81"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="84"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V28" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="W28" s="81"/>
+      <c r="X28" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y28" s="90">
+        <v>4</v>
+      </c>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+    </row>
+    <row r="29" spans="2:29" s="3" customFormat="1">
+      <c r="B29" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="74">
+        <v>2</v>
+      </c>
+      <c r="L29" s="81"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R29" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" s="84"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="V29" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="W29" s="81"/>
+      <c r="X29" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y29" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+    </row>
+    <row r="30" spans="2:29" s="3" customFormat="1">
+      <c r="B30" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="74"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" s="84"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="V30" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" s="81"/>
+      <c r="X30" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+    </row>
+    <row r="31" spans="2:29" s="3" customFormat="1">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="197"/>
+      <c r="K31" s="198"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="195"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="196"/>
+      <c r="V31" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="X31" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+    </row>
+    <row r="32" spans="2:29" s="3" customFormat="1">
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="195"/>
+      <c r="T32" s="91"/>
+      <c r="U32" s="196"/>
+      <c r="V32" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="X32" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+    </row>
+    <row r="33" spans="2:29" s="3" customFormat="1">
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="195"/>
+      <c r="T33" s="91"/>
+      <c r="U33" s="196"/>
+      <c r="V33" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="X33" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+    </row>
+    <row r="34" spans="2:29" s="3" customFormat="1">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="193"/>
+      <c r="R34" s="194"/>
+      <c r="S34" s="195"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="196"/>
+      <c r="V34" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="X34" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+    </row>
+    <row r="35" spans="2:29" s="3" customFormat="1">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+    </row>
+    <row r="36" spans="2:29" s="3" customFormat="1">
+      <c r="B36" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="174"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="74">
+        <v>2</v>
+      </c>
+      <c r="L36" s="81"/>
+      <c r="M36" s="174"/>
+      <c r="N36" s="186" t="s">
+        <v>151</v>
+      </c>
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" s="186" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="186"/>
+      <c r="T36" s="186"/>
+      <c r="U36" s="186" t="s">
+        <v>141</v>
+      </c>
+      <c r="V36" s="186" t="s">
+        <v>145</v>
+      </c>
+      <c r="W36" s="189"/>
+      <c r="X36" s="186" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y36" s="186">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="186"/>
+      <c r="AA36" s="186"/>
+      <c r="AB36" s="186"/>
+      <c r="AC36" s="186"/>
+    </row>
+    <row r="37" spans="2:29" s="3" customFormat="1">
+      <c r="B37" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="172"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="79">
+        <v>2</v>
+      </c>
+      <c r="L37" s="81"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="187"/>
+      <c r="O37" s="187"/>
+      <c r="P37" s="187"/>
+      <c r="Q37" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R37" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="187"/>
+      <c r="T37" s="187"/>
+      <c r="U37" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="187" t="s">
+        <v>134</v>
+      </c>
+      <c r="W37" s="189"/>
+      <c r="X37" s="187" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y37" s="187">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="187"/>
+      <c r="AA37" s="187"/>
+      <c r="AB37" s="187"/>
+      <c r="AC37" s="187"/>
+    </row>
+    <row r="38" spans="2:29" s="3" customFormat="1">
+      <c r="B38" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="172"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K38" s="59"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="174"/>
+      <c r="N38" s="187"/>
+      <c r="O38" s="187"/>
+      <c r="P38" s="187"/>
+      <c r="Q38" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S38" s="187"/>
+      <c r="T38" s="187"/>
+      <c r="U38" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V38" s="187" t="s">
+        <v>133</v>
+      </c>
+      <c r="W38" s="189"/>
+      <c r="X38" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y38" s="187"/>
+      <c r="Z38" s="187"/>
+      <c r="AA38" s="187"/>
+      <c r="AB38" s="187"/>
+      <c r="AC38" s="187"/>
+    </row>
+    <row r="39" spans="2:29" s="3" customFormat="1">
+      <c r="B39" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="172"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" s="59"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="187"/>
+      <c r="O39" s="187"/>
+      <c r="P39" s="187"/>
+      <c r="Q39" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R39" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S39" s="187"/>
+      <c r="T39" s="187"/>
+      <c r="U39" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V39" s="187" t="s">
+        <v>128</v>
+      </c>
+      <c r="W39" s="189"/>
+      <c r="X39" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y39" s="187"/>
+      <c r="Z39" s="187"/>
+      <c r="AA39" s="187"/>
+      <c r="AB39" s="187"/>
+      <c r="AC39" s="187"/>
+    </row>
+    <row r="40" spans="2:29" s="3" customFormat="1">
+      <c r="B40" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="172"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" s="79">
+        <v>1</v>
+      </c>
+      <c r="L40" s="81"/>
+      <c r="M40" s="174"/>
+      <c r="N40" s="187"/>
+      <c r="O40" s="187"/>
+      <c r="P40" s="187"/>
+      <c r="Q40" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R40" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S40" s="187"/>
+      <c r="T40" s="187"/>
+      <c r="U40" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V40" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="W40" s="189"/>
+      <c r="X40" s="187" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y40" s="187">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="187"/>
+      <c r="AA40" s="187"/>
+      <c r="AB40" s="187"/>
+      <c r="AC40" s="187"/>
+    </row>
+    <row r="41" spans="2:29" s="3" customFormat="1">
+      <c r="B41" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K41" s="74">
+        <v>8</v>
+      </c>
+      <c r="L41" s="74">
+        <v>2</v>
+      </c>
+      <c r="M41" s="79"/>
+      <c r="N41" s="187"/>
+      <c r="O41" s="187"/>
+      <c r="P41" s="187"/>
+      <c r="Q41" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R41" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S41" s="187"/>
+      <c r="T41" s="187"/>
+      <c r="U41" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V41" s="187" t="s">
+        <v>97</v>
+      </c>
+      <c r="W41" s="64"/>
+      <c r="X41" s="187" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y41" s="187">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="187">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="187"/>
+      <c r="AB41" s="187"/>
+      <c r="AC41" s="187"/>
+    </row>
+    <row r="42" spans="2:29" s="3" customFormat="1">
+      <c r="B42" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="172"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175" t="s">
+        <v>118</v>
+      </c>
+      <c r="K42" s="175">
+        <v>5</v>
+      </c>
+      <c r="L42" s="83"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="187"/>
+      <c r="O42" s="187"/>
+      <c r="P42" s="187"/>
+      <c r="Q42" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R42" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S42" s="187"/>
+      <c r="T42" s="187"/>
+      <c r="U42" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V42" s="187" t="s">
+        <v>135</v>
+      </c>
+      <c r="W42" s="199"/>
+      <c r="X42" s="187" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y42" s="187">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="187"/>
+      <c r="AA42" s="187"/>
+      <c r="AB42" s="187"/>
+      <c r="AC42" s="187"/>
+    </row>
+    <row r="43" spans="2:29" s="3" customFormat="1" ht="60">
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="200"/>
+      <c r="F43" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="O43" s="84"/>
+      <c r="P43" s="84"/>
+      <c r="Q43" s="84"/>
+      <c r="R43" s="84"/>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y43" s="80">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="81"/>
+      <c r="AA43" s="81"/>
+      <c r="AB43" s="81"/>
+      <c r="AC43" s="81"/>
+    </row>
+    <row r="44" spans="2:29" ht="96">
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="O44" s="84"/>
+      <c r="P44" s="84"/>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="84"/>
+      <c r="S44" s="84"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="84"/>
+      <c r="V44" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="W44" s="81"/>
+      <c r="X44" s="81"/>
+      <c r="Y44" s="81"/>
+      <c r="Z44" s="81"/>
+      <c r="AA44" s="81"/>
+      <c r="AB44" s="81"/>
+      <c r="AC44" s="81"/>
+    </row>
+    <row r="45" spans="2:29" ht="324">
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="O45" s="57"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="R45" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S45" s="71"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V45" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="W45" s="59"/>
+      <c r="X45" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y45" s="74">
+        <v>30</v>
+      </c>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="56"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="56"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="56"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="56"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="56"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="56"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="56"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="56"/>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="56"/>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" s="56"/>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" s="56"/>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="AB36:AB42"/>
+    <mergeCell ref="AC36:AC42"/>
+    <mergeCell ref="U36:U42"/>
+    <mergeCell ref="V36:V42"/>
+    <mergeCell ref="X36:X42"/>
+    <mergeCell ref="Y36:Y42"/>
+    <mergeCell ref="Z36:Z42"/>
+    <mergeCell ref="AA36:AA42"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N36:N42"/>
+    <mergeCell ref="O36:O42"/>
+    <mergeCell ref="P36:P42"/>
+    <mergeCell ref="Q36:Q42"/>
+    <mergeCell ref="R36:R42"/>
+    <mergeCell ref="S36:S42"/>
+    <mergeCell ref="T36:T42"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AF58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="51" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="51" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18.42578125" style="51" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="31.85546875" style="51" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29">
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="B2" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="151"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="147" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" ht="23.25">
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="38"/>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="B4" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="74">
+        <v>100</v>
+      </c>
+      <c r="L4" s="74"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S4" s="57"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="59"/>
+      <c r="X4" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="74">
+        <v>1</v>
+      </c>
+      <c r="L5" s="74"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S5" s="64"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" s="59"/>
+      <c r="X5" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y5" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="74">
+        <v>1</v>
+      </c>
+      <c r="L6" s="74"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="97"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V6" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="W6" s="59"/>
+      <c r="X6" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y6" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="74">
+        <v>1</v>
+      </c>
+      <c r="L7" s="74"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="57"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V7" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" s="59"/>
+      <c r="X7" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y7" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="74">
+        <v>10</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R8" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8" s="57"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V8" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="59"/>
+      <c r="X8" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y8" s="74">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="182">
+        <v>11</v>
+      </c>
+      <c r="L9" s="182"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="179"/>
+      <c r="T9" s="180"/>
+      <c r="U9" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="178" t="s">
+        <v>101</v>
+      </c>
+      <c r="W9" s="178"/>
+      <c r="X9" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y9" s="182">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="178"/>
+      <c r="AB9" s="178"/>
+      <c r="AC9" s="178"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1">
+      <c r="B10" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="74">
+        <v>2</v>
+      </c>
+      <c r="L10" s="74"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="57"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V10" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="59"/>
+      <c r="X10" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1">
+      <c r="B11" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="74">
+        <v>8</v>
+      </c>
+      <c r="L11" s="74"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S11" s="57"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="W11" s="59"/>
+      <c r="X11" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" s="74">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1">
+      <c r="B12" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="74">
+        <v>4</v>
+      </c>
+      <c r="L12" s="74"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="57"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V12" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="W12" s="59"/>
+      <c r="X12" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" s="74">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+    </row>
+    <row r="13" spans="2:29" s="3" customFormat="1">
+      <c r="B13" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="74">
+        <v>6</v>
+      </c>
+      <c r="L13" s="74">
+        <v>2</v>
+      </c>
+      <c r="M13" s="79"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S13" s="57"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V13" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="59"/>
+      <c r="X13" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" s="74">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="74">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+    </row>
+    <row r="14" spans="2:29" s="3" customFormat="1">
+      <c r="B14" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S14" s="57"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V14" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="W14" s="59"/>
+      <c r="X14" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+    </row>
+    <row r="15" spans="2:29" s="3" customFormat="1">
+      <c r="B15" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="74">
+        <v>5</v>
+      </c>
+      <c r="L15" s="74"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R15" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" s="57"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V15" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="W15" s="59"/>
+      <c r="X15" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y15" s="74">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="2:29" s="3" customFormat="1">
+      <c r="B16" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="74">
+        <v>10</v>
+      </c>
+      <c r="L16" s="74"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R16" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S16" s="57"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" s="59"/>
+      <c r="X16" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y16" s="74">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+    </row>
+    <row r="17" spans="2:29" s="3" customFormat="1">
+      <c r="B17" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="74">
+        <v>2</v>
+      </c>
+      <c r="L17" s="74"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R17" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S17" s="57"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V17" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="W17" s="59"/>
+      <c r="X17" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y17" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+    </row>
+    <row r="18" spans="2:29" s="3" customFormat="1">
+      <c r="B18" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="74">
+        <v>15</v>
+      </c>
+      <c r="L18" s="74"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S18" s="57"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V18" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="W18" s="59"/>
+      <c r="X18" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y18" s="74">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+    </row>
+    <row r="19" spans="2:29" s="3" customFormat="1">
+      <c r="B19" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="74">
+        <v>2</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19" s="57"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V19" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="59"/>
+      <c r="X19" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y19" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+    </row>
+    <row r="20" spans="2:29" s="3" customFormat="1">
+      <c r="B20" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="74">
+        <v>3</v>
+      </c>
+      <c r="L20" s="74"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S20" s="57"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V20" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" s="59"/>
+      <c r="X20" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y20" s="74">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+    </row>
+    <row r="21" spans="2:29" s="3" customFormat="1">
+      <c r="B21" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K21" s="74">
+        <v>12</v>
+      </c>
+      <c r="L21" s="74"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S21" s="57"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V21" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="59"/>
+      <c r="X21" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y21" s="74">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+    </row>
+    <row r="22" spans="2:29" s="3" customFormat="1">
+      <c r="B22" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="74">
+        <v>30</v>
+      </c>
+      <c r="L22" s="74"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="R22" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S22" s="97"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V22" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="W22" s="59"/>
+      <c r="X22" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y22" s="74">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+    </row>
+    <row r="23" spans="2:29" s="3" customFormat="1">
+      <c r="B23" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="178" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="182">
+        <v>15</v>
+      </c>
+      <c r="L23" s="182"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="179"/>
+      <c r="P23" s="179"/>
+      <c r="Q23" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="180" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" s="178"/>
+      <c r="T23" s="180"/>
+      <c r="U23" s="180" t="s">
+        <v>122</v>
+      </c>
+      <c r="V23" s="178" t="s">
+        <v>105</v>
+      </c>
+      <c r="W23" s="59"/>
+      <c r="X23" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y23" s="182">
+        <v>15</v>
+      </c>
+      <c r="Z23" s="182"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+    </row>
+    <row r="24" spans="2:29" s="3" customFormat="1">
+      <c r="B24" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" s="79">
+        <v>6</v>
+      </c>
+      <c r="L24" s="74"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S24" s="57"/>
+      <c r="T24" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="U24" s="78" t="s">
+        <v>141</v>
+      </c>
+      <c r="V24" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24" s="59"/>
+      <c r="X24" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y24" s="79">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+    </row>
+    <row r="25" spans="2:29" s="3" customFormat="1">
+      <c r="B25" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="59">
+        <v>12</v>
+      </c>
+      <c r="L25" s="74"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="57"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V25" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y25" s="59">
+        <v>12</v>
+      </c>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+    </row>
+    <row r="26" spans="2:29" s="3" customFormat="1">
+      <c r="B26" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="172"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="59"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="174"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R26" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="84"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V26" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="W26" s="81"/>
+      <c r="X26" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="81"/>
+      <c r="AC26" s="81"/>
+    </row>
+    <row r="27" spans="2:29" s="3" customFormat="1">
+      <c r="B27" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="172"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="174"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R27" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" s="84"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V27" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="W27" s="81"/>
+      <c r="X27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="81"/>
+      <c r="AC27" s="81"/>
+    </row>
+    <row r="28" spans="2:29" s="3" customFormat="1">
+      <c r="B28" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="172"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="K28" s="90">
+        <v>4</v>
+      </c>
+      <c r="L28" s="81"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S28" s="84"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="V28" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="W28" s="81"/>
+      <c r="X28" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y28" s="90">
+        <v>4</v>
+      </c>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
+      <c r="AC28" s="81"/>
+    </row>
+    <row r="29" spans="2:29" s="3" customFormat="1">
+      <c r="B29" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="74">
+        <v>2</v>
+      </c>
+      <c r="L29" s="81"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R29" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S29" s="84"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="V29" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="W29" s="81"/>
+      <c r="X29" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y29" s="74">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="81"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="81"/>
+      <c r="AC29" s="81"/>
+    </row>
+    <row r="30" spans="2:29" s="3" customFormat="1">
+      <c r="B30" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="74"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R30" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S30" s="84"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="V30" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" s="81"/>
+      <c r="X30" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="81"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="81"/>
+      <c r="AC30" s="81"/>
+    </row>
+    <row r="31" spans="2:29" s="3" customFormat="1">
+      <c r="B31" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="74">
+        <v>2</v>
+      </c>
+      <c r="L31" s="81"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="186" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="186" t="s">
+        <v>107</v>
+      </c>
+      <c r="R31" s="186" t="s">
+        <v>123</v>
+      </c>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="186" t="s">
+        <v>141</v>
+      </c>
+      <c r="V31" s="186" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" s="189"/>
+      <c r="X31" s="186" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y31" s="190">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="186"/>
+      <c r="AA31" s="183"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="183"/>
+    </row>
+    <row r="32" spans="2:29" s="3" customFormat="1">
+      <c r="B32" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="172"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="79">
+        <v>2</v>
+      </c>
+      <c r="L32" s="81"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R32" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V32" s="187" t="s">
+        <v>134</v>
+      </c>
+      <c r="W32" s="189"/>
+      <c r="X32" s="187" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y32" s="191">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="187"/>
+      <c r="AA32" s="184"/>
+      <c r="AB32" s="184"/>
+      <c r="AC32" s="184"/>
+    </row>
+    <row r="33" spans="2:29" s="3" customFormat="1">
+      <c r="B33" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="172"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="59"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="174"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S33" s="187"/>
+      <c r="T33" s="187"/>
+      <c r="U33" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V33" s="187" t="s">
+        <v>133</v>
+      </c>
+      <c r="W33" s="189"/>
+      <c r="X33" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y33" s="191"/>
+      <c r="Z33" s="187"/>
+      <c r="AA33" s="184"/>
+      <c r="AB33" s="184"/>
+      <c r="AC33" s="184"/>
+    </row>
+    <row r="34" spans="2:29" s="3" customFormat="1">
+      <c r="B34" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="172"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="59"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="174"/>
+      <c r="N34" s="187"/>
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R34" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S34" s="187"/>
+      <c r="T34" s="187"/>
+      <c r="U34" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V34" s="187" t="s">
+        <v>128</v>
+      </c>
+      <c r="W34" s="189"/>
+      <c r="X34" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y34" s="191"/>
+      <c r="Z34" s="187"/>
+      <c r="AA34" s="184"/>
+      <c r="AB34" s="184"/>
+      <c r="AC34" s="184"/>
+    </row>
+    <row r="35" spans="2:29" s="3" customFormat="1">
+      <c r="B35" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="172"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="79">
+        <v>1</v>
+      </c>
+      <c r="L35" s="81"/>
+      <c r="M35" s="174"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R35" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S35" s="187"/>
+      <c r="T35" s="187"/>
+      <c r="U35" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V35" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="W35" s="189"/>
+      <c r="X35" s="187" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y35" s="191">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="187"/>
+      <c r="AA35" s="184"/>
+      <c r="AB35" s="184"/>
+      <c r="AC35" s="184"/>
+    </row>
+    <row r="36" spans="2:29" s="3" customFormat="1">
+      <c r="B36" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" s="74">
+        <v>8</v>
+      </c>
+      <c r="L36" s="74">
+        <v>2</v>
+      </c>
+      <c r="M36" s="79"/>
+      <c r="N36" s="187"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="187" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="S36" s="187"/>
+      <c r="T36" s="187"/>
+      <c r="U36" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="V36" s="187" t="s">
+        <v>97</v>
+      </c>
+      <c r="W36" s="64"/>
+      <c r="X36" s="187" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y36" s="191">
+        <v>8</v>
+      </c>
+      <c r="Z36" s="187">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="184"/>
+      <c r="AB36" s="184"/>
+      <c r="AC36" s="184"/>
+    </row>
+    <row r="37" spans="2:29" s="3" customFormat="1">
+      <c r="B37" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" s="172"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="79">
+        <v>5</v>
+      </c>
+      <c r="L37" s="81"/>
+      <c r="M37" s="174"/>
+      <c r="N37" s="188"/>
+      <c r="O37" s="185"/>
+      <c r="P37" s="185"/>
+      <c r="Q37" s="188" t="s">
+        <v>107</v>
+      </c>
+      <c r="R37" s="188" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="188"/>
+      <c r="T37" s="188"/>
+      <c r="U37" s="188" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="188" t="s">
+        <v>135</v>
+      </c>
+      <c r="W37" s="189"/>
+      <c r="X37" s="188" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y37" s="192">
+        <v>5</v>
+      </c>
+      <c r="Z37" s="188"/>
+      <c r="AA37" s="185"/>
+      <c r="AB37" s="185"/>
+      <c r="AC37" s="185"/>
+    </row>
+    <row r="38" spans="2:29" s="3" customFormat="1">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+    </row>
+    <row r="39" spans="2:29" s="3" customFormat="1">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+    </row>
+    <row r="40" spans="2:29" ht="324">
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="R40" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="S40" s="97"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V40" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="W40" s="59"/>
+      <c r="X40" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y40" s="74">
+        <v>30</v>
+      </c>
+      <c r="Z40" s="74"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="F41" s="56"/>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" spans="2:29">
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="F44" s="56"/>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="F45" s="56"/>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="56"/>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" s="56"/>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" s="56"/>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" s="56"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="56"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="56"/>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" s="56"/>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="T31:T37"/>
+    <mergeCell ref="U31:U37"/>
+    <mergeCell ref="V31:V37"/>
+    <mergeCell ref="X31:X37"/>
+    <mergeCell ref="Y31:Y37"/>
+    <mergeCell ref="Z31:Z37"/>
+    <mergeCell ref="N31:N37"/>
+    <mergeCell ref="O31:O37"/>
+    <mergeCell ref="P31:P37"/>
+    <mergeCell ref="Q31:Q37"/>
+    <mergeCell ref="R31:R37"/>
+    <mergeCell ref="S31:S37"/>
+    <mergeCell ref="AA31:AA37"/>
+    <mergeCell ref="AB31:AB37"/>
+    <mergeCell ref="AC31:AC37"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6005,15 +10628,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6062,25 +10686,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6095,25 +10733,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_EXTENSAO_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_EXTENSAO_P1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862" activeTab="3"/>
+    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="165">
   <si>
     <t>Schema</t>
   </si>
@@ -1182,13 +1182,19 @@
     <t>COD_TIPO_RUBRICA</t>
   </si>
   <si>
-    <t>IF R_AP.IND_PAGAMENTO = 'P' THEN
+    <t>IND_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>IF IND_PAGAMENTO = 'P' THEN
 -- PAGAMANETO
  V_COD_TIPO_RUBRICA := 31; -- GRATIFICAÇÃO DE EXTENSÃO
-ELSIF R_AP.IND_PAGAMENTO = 'D' THEN
+ELSIF IND_PAGAMENTO = 'D' THEN
 -- DESCONTO
 V_COD_TIPO_RUBRICA := 48; -- DESCONTO DE PAGAMENTO INDEVIDO
 END IF;</t>
+  </si>
+  <si>
+    <t>VALOR_MOVIMENTO</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2016,6 +2022,123 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2025,98 +2148,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2127,24 +2295,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2154,122 +2304,23 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2280,54 +2331,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2495,7 +2511,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2518,14 +2534,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2568,7 +2584,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2591,14 +2607,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2916,7 +2932,7 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2971,28 +2987,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="109"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
@@ -3001,17 +3017,17 @@
       <c r="C11" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113" t="s">
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
@@ -3020,93 +3036,86 @@
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118" t="s">
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3117,6 +3126,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3174,17 +3190,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -3193,119 +3209,119 @@
       <c r="C7" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="121" t="s">
+      <c r="D7" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="87" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="87" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="87" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="87" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="87" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="87" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="87" t="s">
         <v>90</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="87" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3319,17 +3335,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="126" t="s">
+      <c r="B17" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
@@ -3341,38 +3357,38 @@
       <c r="D18" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="128" t="s">
+      <c r="E18" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="128" t="s">
+      <c r="F18" s="148"/>
+      <c r="G18" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1"/>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="1"/>
       <c r="C20" s="9"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" thickBot="1">
       <c r="B21" s="2"/>
@@ -3386,11 +3402,11 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="141" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="43" t="s">
@@ -3420,17 +3436,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="48" t="s">
@@ -3442,52 +3458,63 @@
       <c r="D27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="122" t="s">
+      <c r="F27" s="151"/>
+      <c r="G27" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="122"/>
-      <c r="I27" s="122"/>
-      <c r="J27" s="122"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="10"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3504,17 +3531,6 @@
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3550,11 +3566,11 @@
   </sheetPr>
   <dimension ref="B1:AF66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V12" sqref="V12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3599,39 +3615,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="147" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -3995,36 +4011,36 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="153" t="s">
+      <c r="N9" s="152" t="s">
         <v>78</v>
       </c>
       <c r="O9" s="57"/>
       <c r="P9" s="58"/>
-      <c r="Q9" s="153" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="135" t="s">
+      <c r="Q9" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="163"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="144" t="s">
-        <v>122</v>
-      </c>
-      <c r="V9" s="156" t="s">
+      <c r="S9" s="180"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="173" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="170" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="138"/>
-      <c r="X9" s="157" t="s">
+      <c r="W9" s="183"/>
+      <c r="X9" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="159">
+      <c r="Y9" s="176">
         <v>11</v>
       </c>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="156"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="170"/>
+      <c r="AB9" s="152"/>
+      <c r="AC9" s="152"/>
     </row>
     <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
@@ -4053,22 +4069,22 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="154"/>
+      <c r="N10" s="153"/>
       <c r="O10" s="57"/>
       <c r="P10" s="58"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="139"/>
-      <c r="X10" s="157"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="154"/>
-      <c r="AC10" s="154"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="170"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="171"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="170"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
     </row>
     <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
@@ -4097,22 +4113,22 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="155"/>
+      <c r="N11" s="154"/>
       <c r="O11" s="57"/>
       <c r="P11" s="58"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="156"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="155"/>
-      <c r="AC11" s="155"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="182"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="185"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="178"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="170"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
     </row>
     <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
@@ -4865,36 +4881,36 @@
       <c r="K25" s="79"/>
       <c r="L25" s="79"/>
       <c r="M25" s="79"/>
-      <c r="N25" s="132" t="s">
+      <c r="N25" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="138" t="s">
-        <v>107</v>
-      </c>
-      <c r="R25" s="135" t="s">
+      <c r="O25" s="180"/>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="R25" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="S25" s="138"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="144" t="s">
-        <v>122</v>
-      </c>
-      <c r="V25" s="138" t="s">
+      <c r="S25" s="183"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="173" t="s">
+        <v>122</v>
+      </c>
+      <c r="V25" s="183" t="s">
         <v>105</v>
       </c>
       <c r="W25" s="59"/>
-      <c r="X25" s="141" t="s">
+      <c r="X25" s="189" t="s">
         <v>121</v>
       </c>
-      <c r="Y25" s="169">
+      <c r="Y25" s="158">
         <v>15</v>
       </c>
-      <c r="Z25" s="169"/>
-      <c r="AA25" s="166"/>
-      <c r="AB25" s="166"/>
-      <c r="AC25" s="166"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="61" t="s">
@@ -4923,22 +4939,22 @@
       </c>
       <c r="L26" s="79"/>
       <c r="M26" s="79"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="164"/>
-      <c r="P26" s="164"/>
-      <c r="Q26" s="139"/>
-      <c r="R26" s="136"/>
-      <c r="S26" s="139"/>
-      <c r="T26" s="136"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="139"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="184"/>
       <c r="W26" s="59"/>
-      <c r="X26" s="142"/>
-      <c r="Y26" s="170"/>
-      <c r="Z26" s="170"/>
-      <c r="AA26" s="167"/>
-      <c r="AB26" s="167"/>
-      <c r="AC26" s="167"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="67"/>
@@ -4955,22 +4971,22 @@
       <c r="K27" s="79"/>
       <c r="L27" s="79"/>
       <c r="M27" s="79"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="164"/>
-      <c r="P27" s="164"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="136"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="139"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="184"/>
       <c r="W27" s="59"/>
-      <c r="X27" s="142"/>
-      <c r="Y27" s="170"/>
-      <c r="Z27" s="170"/>
-      <c r="AA27" s="167"/>
-      <c r="AB27" s="167"/>
-      <c r="AC27" s="167"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="159"/>
+      <c r="Z27" s="159"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="61" t="s">
@@ -4993,22 +5009,22 @@
       <c r="K28" s="79"/>
       <c r="L28" s="79"/>
       <c r="M28" s="79"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="139"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="139"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="139"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="184"/>
       <c r="W28" s="59"/>
-      <c r="X28" s="142"/>
-      <c r="Y28" s="170"/>
-      <c r="Z28" s="170"/>
-      <c r="AA28" s="167"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
+      <c r="X28" s="190"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="67"/>
@@ -5025,22 +5041,22 @@
       <c r="K29" s="79"/>
       <c r="L29" s="79"/>
       <c r="M29" s="79"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="164"/>
-      <c r="Q29" s="139"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="139"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="139"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="168"/>
+      <c r="S29" s="184"/>
+      <c r="T29" s="168"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="184"/>
       <c r="W29" s="59"/>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="170"/>
-      <c r="Z29" s="170"/>
-      <c r="AA29" s="167"/>
-      <c r="AB29" s="167"/>
-      <c r="AC29" s="167"/>
+      <c r="X29" s="190"/>
+      <c r="Y29" s="159"/>
+      <c r="Z29" s="159"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="67"/>
@@ -5057,22 +5073,22 @@
       <c r="K30" s="79"/>
       <c r="L30" s="79"/>
       <c r="M30" s="79"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="164"/>
-      <c r="P30" s="164"/>
-      <c r="Q30" s="139"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="136"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="139"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="184"/>
       <c r="W30" s="59"/>
-      <c r="X30" s="142"/>
-      <c r="Y30" s="170"/>
-      <c r="Z30" s="170"/>
-      <c r="AA30" s="167"/>
-      <c r="AB30" s="167"/>
-      <c r="AC30" s="167"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="159"/>
+      <c r="AA30" s="156"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="67"/>
@@ -5089,22 +5105,22 @@
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
       <c r="M31" s="79"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="164"/>
-      <c r="P31" s="164"/>
-      <c r="Q31" s="139"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="139"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="139"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="168"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="168"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="184"/>
       <c r="W31" s="59"/>
-      <c r="X31" s="142"/>
-      <c r="Y31" s="170"/>
-      <c r="Z31" s="170"/>
-      <c r="AA31" s="167"/>
-      <c r="AB31" s="167"/>
-      <c r="AC31" s="167"/>
+      <c r="X31" s="190"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="61" t="s">
@@ -5133,22 +5149,22 @@
       </c>
       <c r="L32" s="79"/>
       <c r="M32" s="79"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="165"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="137"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="137"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="140"/>
+      <c r="N32" s="188"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="185"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="185"/>
       <c r="W32" s="59"/>
-      <c r="X32" s="143"/>
-      <c r="Y32" s="171"/>
-      <c r="Z32" s="171"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
-      <c r="AC32" s="168"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="160"/>
+      <c r="Z32" s="160"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
+      <c r="AC32" s="157"/>
     </row>
     <row r="33" spans="2:29">
       <c r="B33" s="69" t="s">
@@ -5893,12 +5909,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB25:AB32"/>
-    <mergeCell ref="AC25:AC32"/>
-    <mergeCell ref="Y25:Y32"/>
-    <mergeCell ref="Z25:Z32"/>
-    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -5915,16 +5935,12 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="R25:R32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="V25:V32"/>
-    <mergeCell ref="X25:X32"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="U25:U32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="S25:S32"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -5955,13 +5971,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF63"/>
+  <dimension ref="B1:AF62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -6006,39 +6022,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="147" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -6396,48 +6412,48 @@
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="104" t="s">
         <v>101</v>
       </c>
       <c r="G9" s="79"/>
       <c r="H9" s="79"/>
       <c r="I9" s="80"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="182">
+      <c r="K9" s="108">
         <v>11</v>
       </c>
-      <c r="L9" s="182"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="79"/>
-      <c r="N9" s="178"/>
+      <c r="N9" s="104"/>
       <c r="O9" s="57"/>
       <c r="P9" s="58"/>
-      <c r="Q9" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="180" t="s">
+      <c r="Q9" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="179"/>
-      <c r="T9" s="180"/>
-      <c r="U9" s="180" t="s">
-        <v>122</v>
-      </c>
-      <c r="V9" s="178" t="s">
+      <c r="S9" s="105"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="178"/>
-      <c r="X9" s="181" t="s">
+      <c r="W9" s="104"/>
+      <c r="X9" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="182">
+      <c r="Y9" s="108">
         <v>11</v>
       </c>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="178"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
     </row>
     <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="80" t="s">
@@ -7124,45 +7140,45 @@
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="178" t="s">
+      <c r="F23" s="104" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="79"/>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
-      <c r="J23" s="181" t="s">
+      <c r="J23" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="182">
+      <c r="K23" s="108">
         <v>15</v>
       </c>
-      <c r="L23" s="182"/>
+      <c r="L23" s="108"/>
       <c r="M23" s="79"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="179"/>
-      <c r="Q23" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="R23" s="180" t="s">
+      <c r="N23" s="103"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="178"/>
-      <c r="T23" s="180"/>
-      <c r="U23" s="180" t="s">
-        <v>122</v>
-      </c>
-      <c r="V23" s="178" t="s">
+      <c r="S23" s="104"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="V23" s="104" t="s">
         <v>105</v>
       </c>
       <c r="W23" s="59"/>
-      <c r="X23" s="181" t="s">
+      <c r="X23" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="Y23" s="182">
+      <c r="Y23" s="108">
         <v>15</v>
       </c>
-      <c r="Z23" s="182"/>
+      <c r="Z23" s="108"/>
       <c r="AA23" s="90"/>
       <c r="AB23" s="90"/>
       <c r="AC23" s="90"/>
@@ -7285,7 +7301,7 @@
       <c r="F26" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="172"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="79"/>
       <c r="I26" s="79"/>
       <c r="J26" s="59" t="s">
@@ -7293,7 +7309,7 @@
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="81"/>
-      <c r="M26" s="174"/>
+      <c r="M26" s="100"/>
       <c r="N26" s="80"/>
       <c r="O26" s="84"/>
       <c r="P26" s="84"/>
@@ -7333,7 +7349,7 @@
       <c r="F27" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="172"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="79"/>
       <c r="I27" s="79"/>
       <c r="J27" s="59" t="s">
@@ -7341,7 +7357,7 @@
       </c>
       <c r="K27" s="59"/>
       <c r="L27" s="81"/>
-      <c r="M27" s="174"/>
+      <c r="M27" s="100"/>
       <c r="N27" s="80"/>
       <c r="O27" s="84"/>
       <c r="P27" s="84"/>
@@ -7381,9 +7397,9 @@
       <c r="F28" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="172"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
       <c r="J28" s="90" t="s">
         <v>118</v>
       </c>
@@ -7391,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="L28" s="81"/>
-      <c r="M28" s="173"/>
+      <c r="M28" s="99"/>
       <c r="N28" s="80"/>
       <c r="O28" s="84"/>
       <c r="P28" s="84"/>
@@ -7428,14 +7444,14 @@
       <c r="C29" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="72" t="s">
         <v>121</v>
       </c>
@@ -7443,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="81"/>
-      <c r="M29" s="174"/>
+      <c r="M29" s="100"/>
       <c r="N29" s="80"/>
       <c r="O29" s="84"/>
       <c r="P29" s="84"/>
@@ -7480,20 +7496,20 @@
       <c r="C30" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="72" t="s">
         <v>120</v>
       </c>
       <c r="K30" s="74"/>
       <c r="L30" s="81"/>
-      <c r="M30" s="174"/>
+      <c r="M30" s="100"/>
       <c r="N30" s="95"/>
       <c r="O30" s="84"/>
       <c r="P30" s="84"/>
@@ -7530,20 +7546,20 @@
       <c r="G31" s="91"/>
       <c r="H31" s="91"/>
       <c r="I31" s="91"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="198"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="115"/>
       <c r="L31" s="91"/>
       <c r="M31" s="91"/>
       <c r="N31" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="193"/>
-      <c r="R31" s="194"/>
-      <c r="S31" s="195"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="112"/>
       <c r="T31" s="91"/>
-      <c r="U31" s="196"/>
+      <c r="U31" s="113"/>
       <c r="V31" s="80" t="s">
         <v>152</v>
       </c>
@@ -7565,20 +7581,20 @@
       <c r="G32" s="91"/>
       <c r="H32" s="91"/>
       <c r="I32" s="91"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="198"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="115"/>
       <c r="L32" s="91"/>
       <c r="M32" s="91"/>
       <c r="N32" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="193"/>
-      <c r="R32" s="194"/>
-      <c r="S32" s="195"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="112"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="112"/>
       <c r="T32" s="91"/>
-      <c r="U32" s="196"/>
+      <c r="U32" s="113"/>
       <c r="V32" s="80" t="s">
         <v>153</v>
       </c>
@@ -7600,20 +7616,20 @@
       <c r="G33" s="91"/>
       <c r="H33" s="91"/>
       <c r="I33" s="91"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="198"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="115"/>
       <c r="L33" s="91"/>
       <c r="M33" s="91"/>
       <c r="N33" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="194"/>
-      <c r="S33" s="195"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="112"/>
       <c r="T33" s="91"/>
-      <c r="U33" s="196"/>
+      <c r="U33" s="113"/>
       <c r="V33" s="80" t="s">
         <v>154</v>
       </c>
@@ -7635,20 +7651,20 @@
       <c r="G34" s="91"/>
       <c r="H34" s="91"/>
       <c r="I34" s="91"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="198"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="115"/>
       <c r="L34" s="91"/>
       <c r="M34" s="91"/>
       <c r="N34" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="193"/>
-      <c r="R34" s="194"/>
-      <c r="S34" s="195"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="112"/>
       <c r="T34" s="91"/>
-      <c r="U34" s="196"/>
+      <c r="U34" s="113"/>
       <c r="V34" s="80" t="s">
         <v>155</v>
       </c>
@@ -7661,34 +7677,61 @@
       <c r="AB34" s="81"/>
       <c r="AC34" s="81"/>
     </row>
-    <row r="35" spans="2:29" s="3" customFormat="1">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
+    <row r="35" spans="2:29">
+      <c r="B35" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" s="201">
+        <v>8</v>
+      </c>
+      <c r="L35" s="201">
+        <v>2</v>
+      </c>
+      <c r="M35" s="81"/>
+      <c r="N35" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R35" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="W35" s="81"/>
+      <c r="X35" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y35" s="201">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="201">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="81"/>
+      <c r="AB35" s="81"/>
+      <c r="AC35" s="81"/>
     </row>
     <row r="36" spans="2:29" s="3" customFormat="1">
       <c r="B36" s="80" t="s">
@@ -7697,14 +7740,14 @@
       <c r="C36" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
       <c r="F36" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
       <c r="J36" s="72" t="s">
         <v>121</v>
       </c>
@@ -7712,37 +7755,37 @@
         <v>2</v>
       </c>
       <c r="L36" s="81"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="186" t="s">
+      <c r="M36" s="100"/>
+      <c r="N36" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="O36" s="186"/>
-      <c r="P36" s="186"/>
-      <c r="Q36" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="R36" s="186" t="s">
+      <c r="O36" s="192"/>
+      <c r="P36" s="192"/>
+      <c r="Q36" s="192" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="S36" s="186"/>
-      <c r="T36" s="186"/>
-      <c r="U36" s="186" t="s">
+      <c r="S36" s="192"/>
+      <c r="T36" s="192"/>
+      <c r="U36" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="V36" s="186" t="s">
+      <c r="V36" s="202" t="s">
         <v>145</v>
       </c>
-      <c r="W36" s="189"/>
-      <c r="X36" s="186" t="s">
+      <c r="W36" s="109"/>
+      <c r="X36" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="Y36" s="186">
+      <c r="Y36" s="192">
         <v>2</v>
       </c>
-      <c r="Z36" s="186"/>
-      <c r="AA36" s="186"/>
-      <c r="AB36" s="186"/>
-      <c r="AC36" s="186"/>
+      <c r="Z36" s="192"/>
+      <c r="AA36" s="192"/>
+      <c r="AB36" s="192"/>
+      <c r="AC36" s="192"/>
     </row>
     <row r="37" spans="2:29" s="3" customFormat="1">
       <c r="B37" s="80" t="s">
@@ -7756,8 +7799,8 @@
       <c r="F37" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="G37" s="172"/>
-      <c r="H37" s="173"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="79"/>
       <c r="J37" s="79" t="s">
         <v>118</v>
@@ -7766,35 +7809,35 @@
         <v>2</v>
       </c>
       <c r="L37" s="81"/>
-      <c r="M37" s="173"/>
-      <c r="N37" s="187"/>
-      <c r="O37" s="187"/>
-      <c r="P37" s="187"/>
-      <c r="Q37" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R37" s="187" t="s">
+      <c r="M37" s="99"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="193"/>
+      <c r="P37" s="193"/>
+      <c r="Q37" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R37" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S37" s="187"/>
-      <c r="T37" s="187"/>
-      <c r="U37" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V37" s="187" t="s">
+      <c r="S37" s="193"/>
+      <c r="T37" s="193"/>
+      <c r="U37" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="W37" s="189"/>
-      <c r="X37" s="187" t="s">
+      <c r="W37" s="109"/>
+      <c r="X37" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="Y37" s="187">
+      <c r="Y37" s="193">
         <v>2</v>
       </c>
-      <c r="Z37" s="187"/>
-      <c r="AA37" s="187"/>
-      <c r="AB37" s="187"/>
-      <c r="AC37" s="187"/>
+      <c r="Z37" s="193"/>
+      <c r="AA37" s="193"/>
+      <c r="AB37" s="193"/>
+      <c r="AC37" s="193"/>
     </row>
     <row r="38" spans="2:29" s="3" customFormat="1">
       <c r="B38" s="80" t="s">
@@ -7808,41 +7851,41 @@
       <c r="F38" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="172"/>
-      <c r="H38" s="174"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="100"/>
       <c r="I38" s="79"/>
       <c r="J38" s="59" t="s">
         <v>120</v>
       </c>
       <c r="K38" s="59"/>
       <c r="L38" s="81"/>
-      <c r="M38" s="174"/>
-      <c r="N38" s="187"/>
-      <c r="O38" s="187"/>
-      <c r="P38" s="187"/>
-      <c r="Q38" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R38" s="187" t="s">
+      <c r="M38" s="100"/>
+      <c r="N38" s="193"/>
+      <c r="O38" s="193"/>
+      <c r="P38" s="193"/>
+      <c r="Q38" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S38" s="187"/>
-      <c r="T38" s="187"/>
-      <c r="U38" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V38" s="187" t="s">
+      <c r="S38" s="193"/>
+      <c r="T38" s="193"/>
+      <c r="U38" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="V38" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="W38" s="189"/>
-      <c r="X38" s="187" t="s">
+      <c r="W38" s="109"/>
+      <c r="X38" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="Y38" s="187"/>
-      <c r="Z38" s="187"/>
-      <c r="AA38" s="187"/>
-      <c r="AB38" s="187"/>
-      <c r="AC38" s="187"/>
+      <c r="Y38" s="193"/>
+      <c r="Z38" s="193"/>
+      <c r="AA38" s="193"/>
+      <c r="AB38" s="193"/>
+      <c r="AC38" s="193"/>
     </row>
     <row r="39" spans="2:29" s="3" customFormat="1">
       <c r="B39" s="80" t="s">
@@ -7856,41 +7899,41 @@
       <c r="F39" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="172"/>
-      <c r="H39" s="174"/>
+      <c r="G39" s="98"/>
+      <c r="H39" s="100"/>
       <c r="I39" s="79"/>
       <c r="J39" s="59" t="s">
         <v>120</v>
       </c>
       <c r="K39" s="59"/>
       <c r="L39" s="81"/>
-      <c r="M39" s="174"/>
-      <c r="N39" s="187"/>
-      <c r="O39" s="187"/>
-      <c r="P39" s="187"/>
-      <c r="Q39" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R39" s="187" t="s">
+      <c r="M39" s="100"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="193"/>
+      <c r="P39" s="193"/>
+      <c r="Q39" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R39" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S39" s="187"/>
-      <c r="T39" s="187"/>
-      <c r="U39" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V39" s="187" t="s">
+      <c r="S39" s="193"/>
+      <c r="T39" s="193"/>
+      <c r="U39" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="V39" s="203" t="s">
         <v>128</v>
       </c>
-      <c r="W39" s="189"/>
-      <c r="X39" s="187" t="s">
+      <c r="W39" s="109"/>
+      <c r="X39" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="Y39" s="187"/>
-      <c r="Z39" s="187"/>
-      <c r="AA39" s="187"/>
-      <c r="AB39" s="187"/>
-      <c r="AC39" s="187"/>
+      <c r="Y39" s="193"/>
+      <c r="Z39" s="193"/>
+      <c r="AA39" s="193"/>
+      <c r="AB39" s="193"/>
+      <c r="AC39" s="193"/>
     </row>
     <row r="40" spans="2:29" s="3" customFormat="1">
       <c r="B40" s="80" t="s">
@@ -7904,7 +7947,7 @@
       <c r="F40" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="172"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="79"/>
       <c r="I40" s="79"/>
       <c r="J40" s="79" t="s">
@@ -7914,35 +7957,35 @@
         <v>1</v>
       </c>
       <c r="L40" s="81"/>
-      <c r="M40" s="174"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="187"/>
-      <c r="P40" s="187"/>
-      <c r="Q40" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R40" s="187" t="s">
+      <c r="M40" s="100"/>
+      <c r="N40" s="193"/>
+      <c r="O40" s="193"/>
+      <c r="P40" s="193"/>
+      <c r="Q40" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R40" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S40" s="187"/>
-      <c r="T40" s="187"/>
-      <c r="U40" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V40" s="187" t="s">
+      <c r="S40" s="193"/>
+      <c r="T40" s="193"/>
+      <c r="U40" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="V40" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="W40" s="189"/>
-      <c r="X40" s="187" t="s">
+      <c r="W40" s="109"/>
+      <c r="X40" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="Y40" s="187">
+      <c r="Y40" s="193">
         <v>1</v>
       </c>
-      <c r="Z40" s="187"/>
-      <c r="AA40" s="187"/>
-      <c r="AB40" s="187"/>
-      <c r="AC40" s="187"/>
+      <c r="Z40" s="193"/>
+      <c r="AA40" s="193"/>
+      <c r="AB40" s="193"/>
+      <c r="AC40" s="193"/>
     </row>
     <row r="41" spans="2:29" s="3" customFormat="1">
       <c r="B41" s="80" t="s">
@@ -7969,36 +8012,36 @@
         <v>2</v>
       </c>
       <c r="M41" s="79"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
-      <c r="Q41" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R41" s="187" t="s">
+      <c r="N41" s="193"/>
+      <c r="O41" s="193"/>
+      <c r="P41" s="193"/>
+      <c r="Q41" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R41" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S41" s="187"/>
-      <c r="T41" s="187"/>
-      <c r="U41" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V41" s="187" t="s">
+      <c r="S41" s="193"/>
+      <c r="T41" s="193"/>
+      <c r="U41" s="203" t="s">
+        <v>122</v>
+      </c>
+      <c r="V41" s="203" t="s">
         <v>97</v>
       </c>
       <c r="W41" s="64"/>
-      <c r="X41" s="187" t="s">
+      <c r="X41" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="Y41" s="187">
+      <c r="Y41" s="193">
         <v>8</v>
       </c>
-      <c r="Z41" s="187">
+      <c r="Z41" s="193">
         <v>2</v>
       </c>
-      <c r="AA41" s="187"/>
-      <c r="AB41" s="187"/>
-      <c r="AC41" s="187"/>
+      <c r="AA41" s="193"/>
+      <c r="AB41" s="193"/>
+      <c r="AC41" s="193"/>
     </row>
     <row r="42" spans="2:29" s="3" customFormat="1">
       <c r="B42" s="89" t="s">
@@ -8012,59 +8055,67 @@
       <c r="F42" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="172"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="175" t="s">
+      <c r="G42" s="98"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="K42" s="175">
+      <c r="K42" s="101">
         <v>5</v>
       </c>
       <c r="L42" s="83"/>
-      <c r="M42" s="173"/>
-      <c r="N42" s="187"/>
-      <c r="O42" s="187"/>
-      <c r="P42" s="187"/>
-      <c r="Q42" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R42" s="187" t="s">
+      <c r="M42" s="99"/>
+      <c r="N42" s="193"/>
+      <c r="O42" s="193"/>
+      <c r="P42" s="193"/>
+      <c r="Q42" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R42" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S42" s="187"/>
-      <c r="T42" s="187"/>
-      <c r="U42" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V42" s="187" t="s">
+      <c r="S42" s="193"/>
+      <c r="T42" s="193"/>
+      <c r="U42" s="204" t="s">
+        <v>122</v>
+      </c>
+      <c r="V42" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="W42" s="199"/>
-      <c r="X42" s="187" t="s">
+      <c r="W42" s="116"/>
+      <c r="X42" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="Y42" s="187">
+      <c r="Y42" s="193">
         <v>5</v>
       </c>
-      <c r="Z42" s="187"/>
-      <c r="AA42" s="187"/>
-      <c r="AB42" s="187"/>
-      <c r="AC42" s="187"/>
+      <c r="Z42" s="193"/>
+      <c r="AA42" s="193"/>
+      <c r="AB42" s="193"/>
+      <c r="AC42" s="193"/>
     </row>
     <row r="43" spans="2:29" s="3" customFormat="1" ht="60">
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="80" t="s">
+      <c r="B43" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="108" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="81"/>
       <c r="H43" s="81"/>
       <c r="I43" s="81"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
+      <c r="J43" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="K43" s="79">
+        <v>1</v>
+      </c>
       <c r="L43" s="82"/>
       <c r="M43" s="81"/>
       <c r="N43" s="57" t="s">
@@ -8077,7 +8128,7 @@
       <c r="S43" s="84"/>
       <c r="T43" s="84"/>
       <c r="U43" s="84"/>
-      <c r="V43" s="80" t="s">
+      <c r="V43" s="75" t="s">
         <v>159</v>
       </c>
       <c r="W43" s="80"/>
@@ -8093,20 +8144,30 @@
       <c r="AC43" s="81"/>
     </row>
     <row r="44" spans="2:29" ht="96">
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="201"/>
+      <c r="B44" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="108" t="s">
+        <v>162</v>
+      </c>
       <c r="G44" s="81"/>
       <c r="H44" s="81"/>
       <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
+      <c r="J44" s="205" t="s">
+        <v>121</v>
+      </c>
+      <c r="K44" s="79">
+        <v>1</v>
+      </c>
       <c r="L44" s="82"/>
       <c r="M44" s="81"/>
       <c r="N44" s="57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O44" s="84"/>
       <c r="P44" s="84"/>
@@ -8115,12 +8176,16 @@
       <c r="S44" s="84"/>
       <c r="T44" s="84"/>
       <c r="U44" s="84"/>
-      <c r="V44" s="80" t="s">
+      <c r="V44" s="75" t="s">
         <v>161</v>
       </c>
       <c r="W44" s="81"/>
-      <c r="X44" s="81"/>
-      <c r="Y44" s="81"/>
+      <c r="X44" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y44" s="75">
+        <v>3</v>
+      </c>
       <c r="Z44" s="81"/>
       <c r="AA44" s="81"/>
       <c r="AB44" s="81"/>
@@ -8221,19 +8286,8 @@
     <row r="62" spans="6:6">
       <c r="F62" s="56"/>
     </row>
-    <row r="63" spans="6:6">
-      <c r="F63" s="56"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AB36:AB42"/>
-    <mergeCell ref="AC36:AC42"/>
-    <mergeCell ref="U36:U42"/>
-    <mergeCell ref="V36:V42"/>
-    <mergeCell ref="X36:X42"/>
-    <mergeCell ref="Y36:Y42"/>
-    <mergeCell ref="Z36:Z42"/>
-    <mergeCell ref="AA36:AA42"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -8244,6 +8298,14 @@
     <mergeCell ref="R36:R42"/>
     <mergeCell ref="S36:S42"/>
     <mergeCell ref="T36:T42"/>
+    <mergeCell ref="AB36:AB42"/>
+    <mergeCell ref="AC36:AC42"/>
+    <mergeCell ref="U36:U42"/>
+    <mergeCell ref="V36:V42"/>
+    <mergeCell ref="X36:X42"/>
+    <mergeCell ref="Y36:Y42"/>
+    <mergeCell ref="Z36:Z42"/>
+    <mergeCell ref="AA36:AA42"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8257,13 +8319,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF58"/>
+  <dimension ref="B1:AF59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -8308,39 +8370,39 @@
       <c r="V1" s="52"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="151" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="151"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="147" t="s">
+      <c r="O2" s="165"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="148"/>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -8698,48 +8760,48 @@
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="104" t="s">
         <v>101</v>
       </c>
       <c r="G9" s="79"/>
       <c r="H9" s="79"/>
       <c r="I9" s="80"/>
-      <c r="J9" s="181" t="s">
+      <c r="J9" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="182">
+      <c r="K9" s="108">
         <v>11</v>
       </c>
-      <c r="L9" s="182"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="79"/>
-      <c r="N9" s="178"/>
+      <c r="N9" s="104"/>
       <c r="O9" s="57"/>
       <c r="P9" s="58"/>
-      <c r="Q9" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="180" t="s">
+      <c r="Q9" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="179"/>
-      <c r="T9" s="180"/>
-      <c r="U9" s="180" t="s">
-        <v>122</v>
-      </c>
-      <c r="V9" s="178" t="s">
+      <c r="S9" s="105"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="V9" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="178"/>
-      <c r="X9" s="181" t="s">
+      <c r="W9" s="104"/>
+      <c r="X9" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="182">
+      <c r="Y9" s="108">
         <v>11</v>
       </c>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="178"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="104"/>
+      <c r="AC9" s="104"/>
     </row>
     <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="80" t="s">
@@ -9426,45 +9488,45 @@
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="80"/>
-      <c r="F23" s="178" t="s">
+      <c r="F23" s="104" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="79"/>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
-      <c r="J23" s="181" t="s">
+      <c r="J23" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="K23" s="182">
+      <c r="K23" s="108">
         <v>15</v>
       </c>
-      <c r="L23" s="182"/>
+      <c r="L23" s="108"/>
       <c r="M23" s="79"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="179"/>
-      <c r="Q23" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="R23" s="180" t="s">
+      <c r="N23" s="103"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="104" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="S23" s="178"/>
-      <c r="T23" s="180"/>
-      <c r="U23" s="180" t="s">
-        <v>122</v>
-      </c>
-      <c r="V23" s="178" t="s">
+      <c r="S23" s="104"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="V23" s="104" t="s">
         <v>105</v>
       </c>
       <c r="W23" s="59"/>
-      <c r="X23" s="181" t="s">
+      <c r="X23" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="Y23" s="182">
+      <c r="Y23" s="108">
         <v>15</v>
       </c>
-      <c r="Z23" s="182"/>
+      <c r="Z23" s="108"/>
       <c r="AA23" s="90"/>
       <c r="AB23" s="90"/>
       <c r="AC23" s="90"/>
@@ -9587,7 +9649,7 @@
       <c r="F26" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="172"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="79"/>
       <c r="I26" s="79"/>
       <c r="J26" s="59" t="s">
@@ -9595,7 +9657,7 @@
       </c>
       <c r="K26" s="59"/>
       <c r="L26" s="81"/>
-      <c r="M26" s="174"/>
+      <c r="M26" s="100"/>
       <c r="N26" s="80"/>
       <c r="O26" s="84"/>
       <c r="P26" s="84"/>
@@ -9635,7 +9697,7 @@
       <c r="F27" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="172"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="79"/>
       <c r="I27" s="79"/>
       <c r="J27" s="59" t="s">
@@ -9643,7 +9705,7 @@
       </c>
       <c r="K27" s="59"/>
       <c r="L27" s="81"/>
-      <c r="M27" s="174"/>
+      <c r="M27" s="100"/>
       <c r="N27" s="80"/>
       <c r="O27" s="84"/>
       <c r="P27" s="84"/>
@@ -9683,9 +9745,9 @@
       <c r="F28" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="172"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
       <c r="J28" s="90" t="s">
         <v>118</v>
       </c>
@@ -9693,7 +9755,7 @@
         <v>4</v>
       </c>
       <c r="L28" s="81"/>
-      <c r="M28" s="173"/>
+      <c r="M28" s="99"/>
       <c r="N28" s="80"/>
       <c r="O28" s="84"/>
       <c r="P28" s="84"/>
@@ -9730,14 +9792,14 @@
       <c r="C29" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="72" t="s">
         <v>121</v>
       </c>
@@ -9745,7 +9807,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="81"/>
-      <c r="M29" s="174"/>
+      <c r="M29" s="100"/>
       <c r="N29" s="80"/>
       <c r="O29" s="84"/>
       <c r="P29" s="84"/>
@@ -9782,20 +9844,20 @@
       <c r="C30" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
       <c r="F30" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="72" t="s">
         <v>120</v>
       </c>
       <c r="K30" s="74"/>
       <c r="L30" s="81"/>
-      <c r="M30" s="174"/>
+      <c r="M30" s="100"/>
       <c r="N30" s="95"/>
       <c r="O30" s="84"/>
       <c r="P30" s="84"/>
@@ -9823,59 +9885,61 @@
       <c r="AB30" s="81"/>
       <c r="AC30" s="81"/>
     </row>
-    <row r="31" spans="2:29" s="3" customFormat="1">
+    <row r="31" spans="2:29">
       <c r="B31" s="80" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
       <c r="F31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
+        <v>97</v>
+      </c>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
       <c r="J31" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="K31" s="74">
+        <v>118</v>
+      </c>
+      <c r="K31" s="201">
+        <v>8</v>
+      </c>
+      <c r="L31" s="201">
         <v>2</v>
       </c>
-      <c r="L31" s="81"/>
-      <c r="M31" s="174"/>
-      <c r="N31" s="186" t="s">
-        <v>150</v>
-      </c>
-      <c r="O31" s="183"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="186" t="s">
-        <v>107</v>
-      </c>
-      <c r="R31" s="186" t="s">
+      <c r="M31" s="81"/>
+      <c r="N31" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="R31" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186" t="s">
-        <v>141</v>
-      </c>
-      <c r="V31" s="186" t="s">
-        <v>145</v>
-      </c>
-      <c r="W31" s="189"/>
-      <c r="X31" s="186" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y31" s="190">
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="W31" s="81"/>
+      <c r="X31" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y31" s="201">
+        <v>8</v>
+      </c>
+      <c r="Z31" s="201">
         <v>2</v>
       </c>
-      <c r="Z31" s="186"/>
-      <c r="AA31" s="183"/>
-      <c r="AB31" s="183"/>
-      <c r="AC31" s="183"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
     </row>
     <row r="32" spans="2:29" s="3" customFormat="1">
       <c r="B32" s="80" t="s">
@@ -9884,50 +9948,52 @@
       <c r="C32" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
       <c r="F32" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="172"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="K32" s="79">
+        <v>145</v>
+      </c>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="74">
         <v>2</v>
       </c>
       <c r="L32" s="81"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R32" s="187" t="s">
+      <c r="M32" s="100"/>
+      <c r="N32" s="192" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" s="198"/>
+      <c r="P32" s="198"/>
+      <c r="Q32" s="192" t="s">
+        <v>107</v>
+      </c>
+      <c r="R32" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V32" s="187" t="s">
-        <v>134</v>
-      </c>
-      <c r="W32" s="189"/>
-      <c r="X32" s="187" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y32" s="191">
+      <c r="S32" s="192"/>
+      <c r="T32" s="192"/>
+      <c r="U32" s="192" t="s">
+        <v>141</v>
+      </c>
+      <c r="V32" s="192" t="s">
+        <v>145</v>
+      </c>
+      <c r="W32" s="109"/>
+      <c r="X32" s="192" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y32" s="195">
         <v>2</v>
       </c>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="184"/>
-      <c r="AB32" s="184"/>
-      <c r="AC32" s="184"/>
+      <c r="Z32" s="192"/>
+      <c r="AA32" s="198"/>
+      <c r="AB32" s="198"/>
+      <c r="AC32" s="198"/>
     </row>
     <row r="33" spans="2:29" s="3" customFormat="1">
       <c r="B33" s="80" t="s">
@@ -9939,43 +10005,47 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="172"/>
-      <c r="H33" s="174"/>
+        <v>134</v>
+      </c>
+      <c r="G33" s="98"/>
+      <c r="H33" s="99"/>
       <c r="I33" s="79"/>
-      <c r="J33" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="K33" s="59"/>
+      <c r="J33" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="79">
+        <v>2</v>
+      </c>
       <c r="L33" s="81"/>
-      <c r="M33" s="174"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R33" s="187" t="s">
+      <c r="M33" s="99"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="199"/>
+      <c r="P33" s="199"/>
+      <c r="Q33" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V33" s="187" t="s">
-        <v>133</v>
-      </c>
-      <c r="W33" s="189"/>
-      <c r="X33" s="187" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y33" s="191"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="184"/>
-      <c r="AB33" s="184"/>
-      <c r="AC33" s="184"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="V33" s="193" t="s">
+        <v>134</v>
+      </c>
+      <c r="W33" s="109"/>
+      <c r="X33" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y33" s="196">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="193"/>
+      <c r="AA33" s="199"/>
+      <c r="AB33" s="199"/>
+      <c r="AC33" s="199"/>
     </row>
     <row r="34" spans="2:29" s="3" customFormat="1">
       <c r="B34" s="80" t="s">
@@ -9987,43 +10057,43 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="172"/>
-      <c r="H34" s="174"/>
+        <v>133</v>
+      </c>
+      <c r="G34" s="98"/>
+      <c r="H34" s="100"/>
       <c r="I34" s="79"/>
       <c r="J34" s="59" t="s">
         <v>120</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="81"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="187"/>
-      <c r="O34" s="184"/>
-      <c r="P34" s="184"/>
-      <c r="Q34" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R34" s="187" t="s">
+      <c r="M34" s="100"/>
+      <c r="N34" s="193"/>
+      <c r="O34" s="199"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R34" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S34" s="187"/>
-      <c r="T34" s="187"/>
-      <c r="U34" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V34" s="187" t="s">
-        <v>128</v>
-      </c>
-      <c r="W34" s="189"/>
-      <c r="X34" s="187" t="s">
+      <c r="S34" s="193"/>
+      <c r="T34" s="193"/>
+      <c r="U34" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="V34" s="193" t="s">
+        <v>133</v>
+      </c>
+      <c r="W34" s="109"/>
+      <c r="X34" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="Y34" s="191"/>
-      <c r="Z34" s="187"/>
-      <c r="AA34" s="184"/>
-      <c r="AB34" s="184"/>
-      <c r="AC34" s="184"/>
+      <c r="Y34" s="196"/>
+      <c r="Z34" s="193"/>
+      <c r="AA34" s="199"/>
+      <c r="AB34" s="199"/>
+      <c r="AC34" s="199"/>
     </row>
     <row r="35" spans="2:29" s="3" customFormat="1">
       <c r="B35" s="80" t="s">
@@ -10035,47 +10105,43 @@
       <c r="D35" s="80"/>
       <c r="E35" s="80"/>
       <c r="F35" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="172"/>
-      <c r="H35" s="79"/>
+        <v>128</v>
+      </c>
+      <c r="G35" s="98"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="79"/>
-      <c r="J35" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="79">
-        <v>1</v>
-      </c>
+      <c r="J35" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="K35" s="59"/>
       <c r="L35" s="81"/>
-      <c r="M35" s="174"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
-      <c r="Q35" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R35" s="187" t="s">
+      <c r="M35" s="100"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="199"/>
+      <c r="P35" s="199"/>
+      <c r="Q35" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R35" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S35" s="187"/>
-      <c r="T35" s="187"/>
-      <c r="U35" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V35" s="187" t="s">
-        <v>130</v>
-      </c>
-      <c r="W35" s="189"/>
-      <c r="X35" s="187" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y35" s="191">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="187"/>
-      <c r="AA35" s="184"/>
-      <c r="AB35" s="184"/>
-      <c r="AC35" s="184"/>
+      <c r="S35" s="193"/>
+      <c r="T35" s="193"/>
+      <c r="U35" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="V35" s="193" t="s">
+        <v>128</v>
+      </c>
+      <c r="W35" s="109"/>
+      <c r="X35" s="193" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y35" s="196"/>
+      <c r="Z35" s="193"/>
+      <c r="AA35" s="199"/>
+      <c r="AB35" s="199"/>
+      <c r="AC35" s="199"/>
     </row>
     <row r="36" spans="2:29" s="3" customFormat="1">
       <c r="B36" s="80" t="s">
@@ -10086,52 +10152,48 @@
       </c>
       <c r="D36" s="80"/>
       <c r="E36" s="80"/>
-      <c r="F36" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="79"/>
+      <c r="F36" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="98"/>
       <c r="H36" s="79"/>
       <c r="I36" s="79"/>
-      <c r="J36" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="K36" s="74">
-        <v>8</v>
-      </c>
-      <c r="L36" s="74">
-        <v>2</v>
-      </c>
-      <c r="M36" s="79"/>
-      <c r="N36" s="187"/>
-      <c r="O36" s="184"/>
-      <c r="P36" s="184"/>
-      <c r="Q36" s="187" t="s">
-        <v>107</v>
-      </c>
-      <c r="R36" s="187" t="s">
+      <c r="J36" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="79">
+        <v>1</v>
+      </c>
+      <c r="L36" s="81"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="193"/>
+      <c r="O36" s="199"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="S36" s="187"/>
-      <c r="T36" s="187"/>
-      <c r="U36" s="187" t="s">
-        <v>122</v>
-      </c>
-      <c r="V36" s="187" t="s">
-        <v>97</v>
-      </c>
-      <c r="W36" s="64"/>
-      <c r="X36" s="187" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y36" s="191">
-        <v>8</v>
-      </c>
-      <c r="Z36" s="187">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="184"/>
-      <c r="AB36" s="184"/>
-      <c r="AC36" s="184"/>
+      <c r="S36" s="193"/>
+      <c r="T36" s="193"/>
+      <c r="U36" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="V36" s="193" t="s">
+        <v>130</v>
+      </c>
+      <c r="W36" s="109"/>
+      <c r="X36" s="193" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y36" s="196">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="193"/>
+      <c r="AA36" s="199"/>
+      <c r="AB36" s="199"/>
+      <c r="AC36" s="199"/>
     </row>
     <row r="37" spans="2:29" s="3" customFormat="1">
       <c r="B37" s="80" t="s">
@@ -10142,153 +10204,244 @@
       </c>
       <c r="D37" s="80"/>
       <c r="E37" s="80"/>
-      <c r="F37" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="172"/>
+      <c r="F37" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="79"/>
       <c r="H37" s="79"/>
       <c r="I37" s="79"/>
-      <c r="J37" s="79" t="s">
+      <c r="J37" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="K37" s="79">
+      <c r="K37" s="74">
+        <v>8</v>
+      </c>
+      <c r="L37" s="74">
+        <v>2</v>
+      </c>
+      <c r="M37" s="79"/>
+      <c r="N37" s="193"/>
+      <c r="O37" s="199"/>
+      <c r="P37" s="199"/>
+      <c r="Q37" s="193" t="s">
+        <v>107</v>
+      </c>
+      <c r="R37" s="193" t="s">
+        <v>123</v>
+      </c>
+      <c r="S37" s="193"/>
+      <c r="T37" s="193"/>
+      <c r="U37" s="193" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="193" t="s">
+        <v>97</v>
+      </c>
+      <c r="W37" s="64"/>
+      <c r="X37" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y37" s="196">
+        <v>8</v>
+      </c>
+      <c r="Z37" s="193">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="199"/>
+      <c r="AB37" s="199"/>
+      <c r="AC37" s="199"/>
+    </row>
+    <row r="38" spans="2:29" s="3" customFormat="1">
+      <c r="B38" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="98"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" s="101">
         <v>5</v>
       </c>
-      <c r="L37" s="81"/>
-      <c r="M37" s="174"/>
-      <c r="N37" s="188"/>
-      <c r="O37" s="185"/>
-      <c r="P37" s="185"/>
-      <c r="Q37" s="188" t="s">
-        <v>107</v>
-      </c>
-      <c r="R37" s="188" t="s">
+      <c r="L38" s="83"/>
+      <c r="M38" s="99"/>
+      <c r="N38" s="194"/>
+      <c r="O38" s="200"/>
+      <c r="P38" s="200"/>
+      <c r="Q38" s="194" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="S37" s="188"/>
-      <c r="T37" s="188"/>
-      <c r="U37" s="188" t="s">
-        <v>122</v>
-      </c>
-      <c r="V37" s="188" t="s">
+      <c r="S38" s="194"/>
+      <c r="T38" s="194"/>
+      <c r="U38" s="194" t="s">
+        <v>122</v>
+      </c>
+      <c r="V38" s="194" t="s">
         <v>135</v>
       </c>
-      <c r="W37" s="189"/>
-      <c r="X37" s="188" t="s">
+      <c r="W38" s="109"/>
+      <c r="X38" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="Y37" s="192">
+      <c r="Y38" s="197">
         <v>5</v>
       </c>
-      <c r="Z37" s="188"/>
-      <c r="AA37" s="185"/>
-      <c r="AB37" s="185"/>
-      <c r="AC37" s="185"/>
-    </row>
-    <row r="38" spans="2:29" s="3" customFormat="1">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="51"/>
-      <c r="Q38" s="51"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-    </row>
-    <row r="39" spans="2:29" s="3" customFormat="1">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-    </row>
-    <row r="40" spans="2:29" ht="324">
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="70" t="s">
+      <c r="Z38" s="194"/>
+      <c r="AA38" s="200"/>
+      <c r="AB38" s="200"/>
+      <c r="AC38" s="200"/>
+    </row>
+    <row r="39" spans="2:29" s="3" customFormat="1" ht="60">
+      <c r="B39" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" s="79">
+        <v>1</v>
+      </c>
+      <c r="L39" s="82"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="O39" s="84"/>
+      <c r="P39" s="84"/>
+      <c r="Q39" s="84"/>
+      <c r="R39" s="84"/>
+      <c r="S39" s="84"/>
+      <c r="T39" s="84"/>
+      <c r="U39" s="84"/>
+      <c r="V39" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="W39" s="81"/>
+      <c r="X39" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y39" s="80">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="81"/>
+      <c r="AA39" s="81"/>
+      <c r="AB39" s="81"/>
+      <c r="AC39" s="81"/>
+    </row>
+    <row r="40" spans="2:29" s="3" customFormat="1" ht="96">
+      <c r="B40" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="205" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="79">
+        <v>1</v>
+      </c>
+      <c r="L40" s="82"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="O40" s="84"/>
+      <c r="P40" s="84"/>
+      <c r="Q40" s="84"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="84"/>
+      <c r="V40" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="W40" s="81"/>
+      <c r="X40" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y40" s="75">
+        <v>3</v>
+      </c>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="81"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
+    </row>
+    <row r="41" spans="2:29" ht="324">
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="O40" s="57"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="R40" s="78" t="s">
+      <c r="O41" s="57"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="R41" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="S40" s="97"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="V40" s="97" t="s">
+      <c r="S41" s="97"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="V41" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="W40" s="59"/>
-      <c r="X40" s="72" t="s">
+      <c r="W41" s="59"/>
+      <c r="X41" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="Y40" s="74">
+      <c r="Y41" s="74">
         <v>30</v>
       </c>
-      <c r="Z40" s="74"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-    </row>
-    <row r="41" spans="2:29">
-      <c r="F41" s="56"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
     </row>
     <row r="42" spans="2:29">
       <c r="F42" s="56"/>
@@ -10341,26 +10494,29 @@
     <row r="58" spans="6:6">
       <c r="F58" s="56"/>
     </row>
+    <row r="59" spans="6:6">
+      <c r="F59" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="T31:T37"/>
-    <mergeCell ref="U31:U37"/>
-    <mergeCell ref="V31:V37"/>
-    <mergeCell ref="X31:X37"/>
-    <mergeCell ref="Y31:Y37"/>
-    <mergeCell ref="Z31:Z37"/>
-    <mergeCell ref="N31:N37"/>
-    <mergeCell ref="O31:O37"/>
-    <mergeCell ref="P31:P37"/>
-    <mergeCell ref="Q31:Q37"/>
-    <mergeCell ref="R31:R37"/>
-    <mergeCell ref="S31:S37"/>
-    <mergeCell ref="AA31:AA37"/>
-    <mergeCell ref="AB31:AB37"/>
-    <mergeCell ref="AC31:AC37"/>
+    <mergeCell ref="AA32:AA38"/>
+    <mergeCell ref="AB32:AB38"/>
+    <mergeCell ref="AC32:AC38"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="Z32:Z38"/>
+    <mergeCell ref="N32:N38"/>
+    <mergeCell ref="O32:O38"/>
+    <mergeCell ref="P32:P38"/>
+    <mergeCell ref="Q32:Q38"/>
+    <mergeCell ref="R32:R38"/>
+    <mergeCell ref="S32:S38"/>
+    <mergeCell ref="T32:T38"/>
+    <mergeCell ref="U32:U38"/>
+    <mergeCell ref="V32:V38"/>
+    <mergeCell ref="X32:X38"/>
+    <mergeCell ref="Y32:Y38"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -10634,7 +10790,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10687,12 +10848,7 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10711,9 +10867,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10734,9 +10890,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>